--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="790">
   <si>
     <t>institutionCode</t>
   </si>
@@ -1817,9 +1817,6 @@
   </si>
   <si>
     <t>TYPE NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://rs.tdwg.org/ontology/voc/TaxonName#Type  </t>
   </si>
   <si>
     <t>REDIAE</t>
@@ -7060,7 +7057,7 @@
         <v>601</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="H139" t="s" s="19">
         <v>530</v>
@@ -7080,7 +7077,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="11"/>
       <c r="H140" t="s" s="19">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I140" t="s" s="19">
         <v>599</v>
@@ -7095,32 +7092,32 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>433</v>
       </c>
       <c r="H141" t="s" s="19">
+        <v>604</v>
+      </c>
+      <c r="I141" t="s" s="19">
         <v>605</v>
-      </c>
-      <c r="I141" t="s" s="19">
-        <v>606</v>
       </c>
       <c r="J141" s="11"/>
       <c r="K141" s="11"/>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>439</v>
@@ -7132,22 +7129,22 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>278</v>
       </c>
       <c r="H143" t="s" s="19">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I143" t="s" s="19">
         <v>168</v>
@@ -7162,13 +7159,13 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>278</v>
       </c>
       <c r="H144" t="s" s="19">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I144" t="s" s="19">
         <v>213</v>
@@ -7183,13 +7180,13 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>278</v>
       </c>
       <c r="H145" t="s" s="19">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I145" t="s" s="19">
         <v>213</v>
@@ -7199,22 +7196,22 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>450</v>
       </c>
       <c r="H146" t="s" s="19">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I146" t="s" s="19">
         <v>213</v>
@@ -7224,22 +7221,22 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>457</v>
       </c>
       <c r="H147" t="s" s="19">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I147" t="s" s="19">
         <v>213</v>
@@ -7249,22 +7246,22 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>461</v>
       </c>
       <c r="H148" t="s" s="19">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I148" t="s" s="19">
         <v>213</v>
@@ -7274,22 +7271,22 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>466</v>
       </c>
       <c r="H149" t="s" s="19">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I149" t="s" s="19">
         <v>213</v>
@@ -7304,13 +7301,13 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>466</v>
       </c>
       <c r="H150" t="s" s="19">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I150" t="s" s="19">
         <v>213</v>
@@ -7320,22 +7317,22 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>343</v>
       </c>
       <c r="H151" t="s" s="19">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I151" t="s" s="19">
         <v>213</v>
@@ -7348,19 +7345,19 @@
         <v>335</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>343</v>
       </c>
       <c r="H152" t="s" s="19">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I152" t="s" s="19">
         <v>213</v>
@@ -7370,22 +7367,22 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>478</v>
       </c>
       <c r="H153" t="s" s="19">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I153" t="s" s="19">
         <v>213</v>
@@ -7400,13 +7397,13 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>487</v>
       </c>
       <c r="H154" t="s" s="19">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I154" t="s" s="19">
         <v>213</v>
@@ -7416,22 +7413,22 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>493</v>
       </c>
       <c r="H155" t="s" s="19">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I155" t="s" s="19">
         <v>213</v>
@@ -7441,7 +7438,7 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>548</v>
@@ -7450,13 +7447,13 @@
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>498</v>
       </c>
       <c r="H156" t="s" s="19">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I156" t="s" s="19">
         <v>213</v>
@@ -7466,7 +7463,7 @@
     </row>
     <row r="157" ht="17" customHeight="1">
       <c r="A157" t="s" s="22">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B157" t="s" s="22">
         <v>313</v>
@@ -7475,13 +7472,13 @@
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>504</v>
       </c>
       <c r="H157" t="s" s="19">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I157" t="s" s="19">
         <v>213</v>
@@ -7500,13 +7497,13 @@
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>478</v>
       </c>
       <c r="H158" t="s" s="19">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I158" t="s" s="19">
         <v>213</v>
@@ -7516,22 +7513,22 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B159" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>478</v>
       </c>
       <c r="H159" t="s" s="19">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I159" t="s" s="19">
         <v>213</v>
@@ -7541,22 +7538,22 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B160" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="G160" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="H160" t="s" s="19">
         <v>663</v>
-      </c>
-      <c r="H160" t="s" s="19">
-        <v>664</v>
       </c>
       <c r="I160" t="s" s="19">
         <v>213</v>
@@ -7566,22 +7563,22 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B161" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="G161" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="H161" t="s" s="19">
         <v>668</v>
-      </c>
-      <c r="H161" t="s" s="19">
-        <v>669</v>
       </c>
       <c r="I161" t="s" s="19">
         <v>213</v>
@@ -7591,22 +7588,22 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B162" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="G162" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="H162" t="s" s="19">
         <v>673</v>
-      </c>
-      <c r="H162" t="s" s="19">
-        <v>674</v>
       </c>
       <c r="I162" t="s" s="19">
         <v>213</v>
@@ -7616,10 +7613,10 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B163" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -7637,22 +7634,22 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B164" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" t="s" s="19">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G164" t="s" s="19">
         <v>168</v>
       </c>
       <c r="H164" t="s" s="19">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I164" t="s" s="19">
         <v>213</v>
@@ -7662,10 +7659,10 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -7673,7 +7670,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="11"/>
       <c r="H165" t="s" s="19">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I165" t="s" s="19">
         <v>213</v>
@@ -7683,22 +7680,22 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B166" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="G166" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="H166" t="s" s="19">
         <v>687</v>
-      </c>
-      <c r="H166" t="s" s="19">
-        <v>688</v>
       </c>
       <c r="I166" t="s" s="19">
         <v>213</v>
@@ -7708,7 +7705,7 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>266</v>
@@ -7717,13 +7714,13 @@
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="G167" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="H167" t="s" s="19">
         <v>691</v>
-      </c>
-      <c r="H167" t="s" s="19">
-        <v>692</v>
       </c>
       <c r="I167" t="s" s="19">
         <v>213</v>
@@ -7738,13 +7735,13 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="G168" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="H168" t="s" s="19">
         <v>694</v>
-      </c>
-      <c r="H168" t="s" s="19">
-        <v>695</v>
       </c>
       <c r="I168" t="s" s="19">
         <v>213</v>
@@ -7759,13 +7756,13 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="G169" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="H169" t="s" s="19">
         <v>697</v>
-      </c>
-      <c r="H169" t="s" s="19">
-        <v>698</v>
       </c>
       <c r="I169" t="s" s="19">
         <v>213</v>
@@ -7780,10 +7777,10 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="G170" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
@@ -7797,10 +7794,10 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="G171" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
@@ -7814,10 +7811,10 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="G172" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
@@ -7831,10 +7828,10 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="G173" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
@@ -7848,10 +7845,10 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="G174" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
@@ -7865,10 +7862,10 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="G175" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -7882,10 +7879,10 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -7899,10 +7896,10 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="G177" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -7916,10 +7913,10 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
@@ -7933,10 +7930,10 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="G179" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
@@ -7950,10 +7947,10 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="G180" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
@@ -7967,10 +7964,10 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="G181" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="11"/>
@@ -7984,10 +7981,10 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="G182" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
@@ -8001,10 +7998,10 @@
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="G183" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
@@ -8018,10 +8015,10 @@
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="G184" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="H184" s="11"/>
       <c r="I184" s="11"/>
@@ -8035,10 +8032,10 @@
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
@@ -8052,10 +8049,10 @@
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="G186" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
@@ -8069,10 +8066,10 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="G187" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
@@ -8086,10 +8083,10 @@
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="G188" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
@@ -8103,10 +8100,10 @@
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="G189" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
@@ -8120,10 +8117,10 @@
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="G190" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
@@ -8137,10 +8134,10 @@
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
@@ -8154,10 +8151,10 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="G192" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
@@ -8171,10 +8168,10 @@
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="G193" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
@@ -8201,7 +8198,7 @@
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>64</v>
@@ -8218,7 +8215,7 @@
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>286</v>
@@ -8252,7 +8249,7 @@
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>278</v>
@@ -8269,7 +8266,7 @@
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>64</v>
@@ -8286,7 +8283,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>108</v>
@@ -8303,7 +8300,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>73</v>
@@ -8320,7 +8317,7 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>136</v>
@@ -8354,7 +8351,7 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>343</v>
@@ -8371,10 +8368,10 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="11"/>
@@ -8405,10 +8402,10 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="G207" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="H207" s="11"/>
       <c r="I207" s="11"/>
@@ -8422,7 +8419,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>82</v>
@@ -8439,7 +8436,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>286</v>
@@ -8456,7 +8453,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>352</v>
@@ -8473,7 +8470,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>238</v>
@@ -8490,7 +8487,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>238</v>
@@ -8507,7 +8504,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>238</v>
@@ -8524,10 +8521,10 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H214" s="11"/>
       <c r="I214" s="11"/>
@@ -8558,10 +8555,10 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
@@ -8626,7 +8623,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>278</v>
@@ -8643,10 +8640,10 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H221" s="11"/>
       <c r="I221" s="11"/>
@@ -8660,7 +8657,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>478</v>
@@ -8677,7 +8674,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>493</v>
@@ -8694,7 +8691,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>498</v>
@@ -8711,7 +8708,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>286</v>
@@ -8728,7 +8725,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>238</v>
@@ -8745,7 +8742,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>238</v>
@@ -8762,7 +8759,7 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>498</v>
@@ -8830,7 +8827,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>53</v>
@@ -8847,7 +8844,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>53</v>
@@ -8864,7 +8861,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>53</v>
@@ -8881,7 +8878,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>53</v>
@@ -8898,7 +8895,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>102</v>
@@ -8915,7 +8912,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>102</v>
@@ -8996,7 +8993,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>504</v>
@@ -9013,10 +9010,10 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="G243" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="G243" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="11"/>
@@ -9030,10 +9027,10 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="G244" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="G244" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="11"/>
@@ -9047,10 +9044,10 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="G245" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="G245" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="H245" s="11"/>
       <c r="I245" s="11"/>
@@ -9064,10 +9061,10 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="G246" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="G246" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="11"/>
@@ -9081,10 +9078,10 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="G247" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="G247" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="H247" s="11"/>
       <c r="I247" s="11"/>
@@ -9098,10 +9095,10 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="G248" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="G248" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="11"/>
@@ -9115,7 +9112,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>136</v>
@@ -9132,7 +9129,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>136</v>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
   <si>
     <t>institutionCode</t>
   </si>
@@ -1838,6 +1838,9 @@
   </si>
   <si>
     <t>UNCONFIRMED COTYPE</t>
+  </si>
+  <si>
+    <t>PARTHENITAE</t>
   </si>
   <si>
     <t>L</t>
@@ -7122,29 +7125,33 @@
       <c r="G142" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
+      <c r="H142" t="s" s="19">
+        <v>609</v>
+      </c>
+      <c r="I142" t="s" s="19">
+        <v>517</v>
+      </c>
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>278</v>
       </c>
       <c r="H143" t="s" s="19">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I143" t="s" s="19">
         <v>168</v>
@@ -7159,13 +7166,13 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>278</v>
       </c>
       <c r="H144" t="s" s="19">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I144" t="s" s="19">
         <v>213</v>
@@ -7180,13 +7187,13 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>278</v>
       </c>
       <c r="H145" t="s" s="19">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I145" t="s" s="19">
         <v>213</v>
@@ -7196,22 +7203,22 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>450</v>
       </c>
       <c r="H146" t="s" s="19">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I146" t="s" s="19">
         <v>213</v>
@@ -7221,22 +7228,22 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>457</v>
       </c>
       <c r="H147" t="s" s="19">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I147" t="s" s="19">
         <v>213</v>
@@ -7246,22 +7253,22 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>461</v>
       </c>
       <c r="H148" t="s" s="19">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I148" t="s" s="19">
         <v>213</v>
@@ -7271,22 +7278,22 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>466</v>
       </c>
       <c r="H149" t="s" s="19">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I149" t="s" s="19">
         <v>213</v>
@@ -7301,13 +7308,13 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>466</v>
       </c>
       <c r="H150" t="s" s="19">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I150" t="s" s="19">
         <v>213</v>
@@ -7317,22 +7324,22 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>343</v>
       </c>
       <c r="H151" t="s" s="19">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I151" t="s" s="19">
         <v>213</v>
@@ -7345,19 +7352,19 @@
         <v>335</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>343</v>
       </c>
       <c r="H152" t="s" s="19">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I152" t="s" s="19">
         <v>213</v>
@@ -7367,22 +7374,22 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>478</v>
       </c>
       <c r="H153" t="s" s="19">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I153" t="s" s="19">
         <v>213</v>
@@ -7397,13 +7404,13 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>487</v>
       </c>
       <c r="H154" t="s" s="19">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I154" t="s" s="19">
         <v>213</v>
@@ -7413,22 +7420,22 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>493</v>
       </c>
       <c r="H155" t="s" s="19">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I155" t="s" s="19">
         <v>213</v>
@@ -7438,7 +7445,7 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>548</v>
@@ -7447,13 +7454,13 @@
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>498</v>
       </c>
       <c r="H156" t="s" s="19">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I156" t="s" s="19">
         <v>213</v>
@@ -7463,7 +7470,7 @@
     </row>
     <row r="157" ht="17" customHeight="1">
       <c r="A157" t="s" s="22">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B157" t="s" s="22">
         <v>313</v>
@@ -7472,13 +7479,13 @@
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>504</v>
       </c>
       <c r="H157" t="s" s="19">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I157" t="s" s="19">
         <v>213</v>
@@ -7497,13 +7504,13 @@
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>478</v>
       </c>
       <c r="H158" t="s" s="19">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I158" t="s" s="19">
         <v>213</v>
@@ -7513,22 +7520,22 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>478</v>
       </c>
       <c r="H159" t="s" s="19">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I159" t="s" s="19">
         <v>213</v>
@@ -7538,22 +7545,22 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H160" t="s" s="19">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I160" t="s" s="19">
         <v>213</v>
@@ -7563,22 +7570,22 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H161" t="s" s="19">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I161" t="s" s="19">
         <v>213</v>
@@ -7588,22 +7595,22 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H162" t="s" s="19">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I162" t="s" s="19">
         <v>213</v>
@@ -7613,10 +7620,10 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -7634,22 +7641,22 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" t="s" s="19">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G164" t="s" s="19">
         <v>168</v>
       </c>
       <c r="H164" t="s" s="19">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I164" t="s" s="19">
         <v>213</v>
@@ -7659,10 +7666,10 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -7670,7 +7677,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="11"/>
       <c r="H165" t="s" s="19">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I165" t="s" s="19">
         <v>213</v>
@@ -7680,22 +7687,22 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H166" t="s" s="19">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I166" t="s" s="19">
         <v>213</v>
@@ -7705,7 +7712,7 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>266</v>
@@ -7714,13 +7721,13 @@
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H167" t="s" s="19">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I167" t="s" s="19">
         <v>213</v>
@@ -7735,13 +7742,13 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H168" t="s" s="19">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I168" t="s" s="19">
         <v>213</v>
@@ -7756,13 +7763,13 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H169" t="s" s="19">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I169" t="s" s="19">
         <v>213</v>
@@ -7777,10 +7784,10 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
@@ -7794,10 +7801,10 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
@@ -7811,10 +7818,10 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
@@ -7828,10 +7835,10 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
@@ -7845,10 +7852,10 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
@@ -7862,10 +7869,10 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -7879,10 +7886,10 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="G176" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -7896,10 +7903,10 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -7913,10 +7920,10 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="G178" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
@@ -7930,10 +7937,10 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
@@ -7947,10 +7954,10 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
@@ -7964,10 +7971,10 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="11"/>
@@ -7981,10 +7988,10 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
@@ -7998,10 +8005,10 @@
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
@@ -8015,10 +8022,10 @@
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H184" s="11"/>
       <c r="I184" s="11"/>
@@ -8032,10 +8039,10 @@
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="G185" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
@@ -8049,10 +8056,10 @@
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
@@ -8066,10 +8073,10 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
@@ -8083,10 +8090,10 @@
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
@@ -8100,10 +8107,10 @@
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
@@ -8117,10 +8124,10 @@
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
@@ -8134,10 +8141,10 @@
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="G191" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
@@ -8151,10 +8158,10 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
@@ -8168,10 +8175,10 @@
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
@@ -8198,7 +8205,7 @@
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>64</v>
@@ -8215,7 +8222,7 @@
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>286</v>
@@ -8249,7 +8256,7 @@
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>278</v>
@@ -8266,7 +8273,7 @@
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>64</v>
@@ -8283,7 +8290,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>108</v>
@@ -8300,7 +8307,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>73</v>
@@ -8317,7 +8324,7 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>136</v>
@@ -8351,7 +8358,7 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>343</v>
@@ -8368,10 +8375,10 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="11"/>
@@ -8402,10 +8409,10 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H207" s="11"/>
       <c r="I207" s="11"/>
@@ -8419,7 +8426,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>82</v>
@@ -8436,7 +8443,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>286</v>
@@ -8453,7 +8460,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>352</v>
@@ -8470,7 +8477,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>238</v>
@@ -8487,7 +8494,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>238</v>
@@ -8504,7 +8511,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>238</v>
@@ -8521,10 +8528,10 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H214" s="11"/>
       <c r="I214" s="11"/>
@@ -8555,10 +8562,10 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
@@ -8623,7 +8630,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>278</v>
@@ -8640,10 +8647,10 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H221" s="11"/>
       <c r="I221" s="11"/>
@@ -8657,7 +8664,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>478</v>
@@ -8674,7 +8681,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>493</v>
@@ -8691,7 +8698,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>498</v>
@@ -8708,7 +8715,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>286</v>
@@ -8725,7 +8732,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>238</v>
@@ -8742,7 +8749,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>238</v>
@@ -8759,7 +8766,7 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>498</v>
@@ -8827,7 +8834,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>53</v>
@@ -8844,7 +8851,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>53</v>
@@ -8861,7 +8868,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>53</v>
@@ -8878,7 +8885,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>53</v>
@@ -8895,7 +8902,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>102</v>
@@ -8912,7 +8919,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>102</v>
@@ -8993,7 +9000,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>504</v>
@@ -9010,10 +9017,10 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="11"/>
@@ -9027,10 +9034,10 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="11"/>
@@ -9044,10 +9051,10 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H245" s="11"/>
       <c r="I245" s="11"/>
@@ -9061,10 +9068,10 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G246" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="11"/>
@@ -9078,10 +9085,10 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H247" s="11"/>
       <c r="I247" s="11"/>
@@ -9095,10 +9102,10 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="11"/>
@@ -9112,7 +9119,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>136</v>
@@ -9129,7 +9136,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>136</v>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="810">
   <si>
     <t>institutionCode</t>
   </si>
@@ -2050,7 +2050,10 @@
     <t>http://biocol.org/urn:lsid:biocol.org:col:15852</t>
   </si>
   <si>
-    <t>RENAMED</t>
+    <t>RENAMED xxx</t>
+  </si>
+  <si>
+    <t>EXCLUDE xxx</t>
   </si>
   <si>
     <t>PROT. SPOROGONIC STAGE</t>
@@ -2384,6 +2387,60 @@
   </si>
   <si>
     <t>PARALECOTYPE</t>
+  </si>
+  <si>
+    <t>PHOTOPARATYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/photoparatype</t>
+  </si>
+  <si>
+    <t>PHOTOTYPE</t>
+  </si>
+  <si>
+    <t>PHOTONEOTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/photoneotype</t>
+  </si>
+  <si>
+    <t>PHOTOSYNTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/photosyntype</t>
+  </si>
+  <si>
+    <t>PHOTONEOSYNTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/photoneosyntype</t>
+  </si>
+  <si>
+    <t>NEOPARAHAPANTOTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/paraneohapantotype</t>
+  </si>
+  <si>
+    <t>LECTOHAPANTOTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/lectohapantotype</t>
+  </si>
+  <si>
+    <t>PARANEOHAPANTOTYPE</t>
+  </si>
+  <si>
+    <t>PHOTOHAPANTOTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/photohapantotype</t>
+  </si>
+  <si>
+    <t>PARALECTOHAPANTOTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/paralectohapantotype</t>
   </si>
 </sst>
 </file>
@@ -3724,7 +3781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K250"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7653,10 +7710,10 @@
         <v>679</v>
       </c>
       <c r="G164" t="s" s="19">
-        <v>168</v>
+        <v>680</v>
       </c>
       <c r="H164" t="s" s="19">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I164" t="s" s="19">
         <v>213</v>
@@ -7666,10 +7723,10 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -7677,7 +7734,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="11"/>
       <c r="H165" t="s" s="19">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I165" t="s" s="19">
         <v>213</v>
@@ -7687,22 +7744,22 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H166" t="s" s="19">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I166" t="s" s="19">
         <v>213</v>
@@ -7712,7 +7769,7 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>266</v>
@@ -7721,13 +7778,13 @@
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H167" t="s" s="19">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I167" t="s" s="19">
         <v>213</v>
@@ -7742,13 +7799,13 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H168" t="s" s="19">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I168" t="s" s="19">
         <v>213</v>
@@ -7763,13 +7820,13 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H169" t="s" s="19">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I169" t="s" s="19">
         <v>213</v>
@@ -7784,10 +7841,10 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
@@ -7801,10 +7858,10 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
@@ -7818,10 +7875,10 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
@@ -7835,10 +7892,10 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
@@ -7852,10 +7909,10 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
@@ -7869,10 +7926,10 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -7886,10 +7943,10 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="G176" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -7903,10 +7960,10 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -7920,10 +7977,10 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="G178" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
@@ -7937,10 +7994,10 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
@@ -7954,10 +8011,10 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
@@ -7971,10 +8028,10 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="11"/>
@@ -7988,10 +8045,10 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
@@ -8005,10 +8062,10 @@
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
@@ -8022,10 +8079,10 @@
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H184" s="11"/>
       <c r="I184" s="11"/>
@@ -8039,10 +8096,10 @@
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="G185" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
@@ -8056,10 +8113,10 @@
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
@@ -8073,10 +8130,10 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
@@ -8090,10 +8147,10 @@
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
@@ -8107,10 +8164,10 @@
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
@@ -8124,10 +8181,10 @@
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
@@ -8141,10 +8198,10 @@
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="G191" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
@@ -8158,10 +8215,10 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
@@ -8175,10 +8232,10 @@
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
@@ -8205,7 +8262,7 @@
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>64</v>
@@ -8222,7 +8279,7 @@
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>286</v>
@@ -8273,7 +8330,7 @@
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>64</v>
@@ -8290,7 +8347,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>108</v>
@@ -8307,7 +8364,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>73</v>
@@ -8324,7 +8381,7 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G202" t="s" s="2">
         <v>136</v>
@@ -8358,7 +8415,7 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>343</v>
@@ -8375,10 +8432,10 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="11"/>
@@ -8409,10 +8466,10 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H207" s="11"/>
       <c r="I207" s="11"/>
@@ -8426,7 +8483,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>82</v>
@@ -8443,7 +8500,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>286</v>
@@ -8460,7 +8517,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>352</v>
@@ -8477,7 +8534,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>238</v>
@@ -8494,7 +8551,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>238</v>
@@ -8511,7 +8568,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>238</v>
@@ -8528,10 +8585,10 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H214" s="11"/>
       <c r="I214" s="11"/>
@@ -8562,10 +8619,10 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
@@ -8630,7 +8687,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>278</v>
@@ -8647,10 +8704,10 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H221" s="11"/>
       <c r="I221" s="11"/>
@@ -8664,7 +8721,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>478</v>
@@ -8681,7 +8738,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>493</v>
@@ -8698,7 +8755,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>498</v>
@@ -8715,7 +8772,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G225" t="s" s="2">
         <v>286</v>
@@ -8732,7 +8789,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>238</v>
@@ -8749,7 +8806,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>238</v>
@@ -8766,7 +8823,7 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>498</v>
@@ -8834,7 +8891,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>53</v>
@@ -8851,7 +8908,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>53</v>
@@ -8868,7 +8925,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>53</v>
@@ -8885,7 +8942,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>53</v>
@@ -8902,7 +8959,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>102</v>
@@ -8919,7 +8976,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>102</v>
@@ -9000,7 +9057,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>504</v>
@@ -9017,10 +9074,10 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="11"/>
@@ -9034,10 +9091,10 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="11"/>
@@ -9051,10 +9108,10 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H245" s="11"/>
       <c r="I245" s="11"/>
@@ -9068,10 +9125,10 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G246" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="11"/>
@@ -9085,10 +9142,10 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H247" s="11"/>
       <c r="I247" s="11"/>
@@ -9102,10 +9159,10 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="11"/>
@@ -9119,7 +9176,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>136</v>
@@ -9136,7 +9193,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>136</v>
@@ -9145,6 +9202,241 @@
       <c r="I250" s="11"/>
       <c r="J250" s="11"/>
       <c r="K250" s="11"/>
+    </row>
+    <row r="251" ht="15" customHeight="1">
+      <c r="A251" s="11"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="11"/>
+    </row>
+    <row r="252" ht="15" customHeight="1">
+      <c r="A252" s="11"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="G252" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="11"/>
+    </row>
+    <row r="253" ht="15" customHeight="1">
+      <c r="A253" s="11"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="G253" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+    </row>
+    <row r="254" ht="15" customHeight="1">
+      <c r="A254" s="11"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="G254" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="11"/>
+    </row>
+    <row r="255" ht="15" customHeight="1">
+      <c r="A255" s="11"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="G255" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
+    </row>
+    <row r="256" ht="15" customHeight="1">
+      <c r="A256" s="11"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="G256" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+    </row>
+    <row r="257" ht="15" customHeight="1">
+      <c r="A257" s="11"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="G257" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+    </row>
+    <row r="258" ht="15" customHeight="1">
+      <c r="A258" s="11"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="G258" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+    </row>
+    <row r="259" ht="15" customHeight="1">
+      <c r="A259" s="11"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="G259" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+    </row>
+    <row r="260" ht="15" customHeight="1">
+      <c r="A260" s="11"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="G260" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+    </row>
+    <row r="261" ht="15" customHeight="1">
+      <c r="A261" s="11"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="G261" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="A262" s="11"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+    </row>
+    <row r="263" ht="15" customHeight="1">
+      <c r="A263" s="11"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+    </row>
+    <row r="264" ht="15" customHeight="1">
+      <c r="A264" s="11"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="A265" s="11"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t>institutionCode</t>
   </si>
@@ -187,6 +187,12 @@
     <t>http://grbio.org/cool/22s5-q4hk</t>
   </si>
   <si>
+    <t>HOLOTPYE BY MONOTYPY</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/ontology/voc/TaxonName#Holotype</t>
+  </si>
+  <si>
     <t>EGGS</t>
   </si>
   <si>
@@ -203,9 +209,6 @@
   </si>
   <si>
     <t>HOLOTYPE</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/ontology/voc/TaxonName#Holotype</t>
   </si>
   <si>
     <t>EMBRYO</t>
@@ -2629,9 +2632,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2657,6 +2657,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4005,310 +4008,314 @@
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
+      <c r="F7" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="H7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s" s="6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>62</v>
+      <c r="D9" t="s" s="11">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>64</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
       <c r="F10" t="s" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s" s="6">
         <v>23</v>
       </c>
       <c r="F11" t="s" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F13" t="s" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F14" t="s" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F15" t="s" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>11</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="8"/>
@@ -4317,44 +4324,44 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="8"/>
@@ -4363,19 +4370,19 @@
       <c r="D20" s="3"/>
       <c r="E20" s="8"/>
       <c r="F20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="8"/>
@@ -4384,15 +4391,15 @@
       <c r="D21" s="3"/>
       <c r="E21" s="8"/>
       <c r="F21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="8"/>
@@ -4401,514 +4408,514 @@
       <c r="D22" s="3"/>
       <c r="E22" s="8"/>
       <c r="F22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="E26" t="s" s="15">
-        <v>159</v>
-      </c>
-      <c r="F26" t="s" s="16">
         <v>167</v>
       </c>
-      <c r="G26" t="s" s="16">
+      <c r="E26" t="s" s="14">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s" s="15">
         <v>168</v>
       </c>
+      <c r="G26" t="s" s="15">
+        <v>169</v>
+      </c>
       <c r="H26" t="s" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+        <v>171</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" t="s" s="17">
-        <v>173</v>
-      </c>
-      <c r="G27" t="s" s="17">
+      <c r="F27" t="s" s="16">
         <v>174</v>
       </c>
+      <c r="G27" t="s" s="16">
+        <v>175</v>
+      </c>
       <c r="H27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="10"/>
       <c r="H28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F29" t="s" s="7">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" t="s" s="17">
-        <v>186</v>
-      </c>
-      <c r="E30" t="s" s="17">
+      <c r="D30" t="s" s="16">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s" s="16">
         <v>23</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+        <v>198</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>13</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+        <v>204</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" t="s" s="19">
-        <v>212</v>
-      </c>
-      <c r="E34" t="s" s="19">
+      <c r="D34" t="s" s="18">
         <v>213</v>
       </c>
+      <c r="E34" t="s" s="18">
+        <v>214</v>
+      </c>
       <c r="F34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" t="s" s="19">
-        <v>219</v>
-      </c>
-      <c r="E35" t="s" s="19">
-        <v>213</v>
+      <c r="D35" t="s" s="18">
+        <v>220</v>
+      </c>
+      <c r="E35" t="s" s="18">
+        <v>214</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" t="s" s="19">
-        <v>224</v>
-      </c>
-      <c r="E36" t="s" s="19">
-        <v>213</v>
+      <c r="D36" t="s" s="18">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s" s="18">
+        <v>214</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="10"/>
       <c r="H38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
+        <v>235</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+        <v>241</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>31</v>
@@ -4917,149 +4924,149 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
+        <v>261</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="15">
-        <v>261</v>
-      </c>
-      <c r="B44" t="s" s="16">
+      <c r="A44" t="s" s="14">
         <v>262</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="B44" t="s" s="15">
+        <v>263</v>
+      </c>
+      <c r="C44" s="19"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="10"/>
       <c r="H45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B47" t="s" s="17">
         <v>266</v>
+      </c>
+      <c r="B47" t="s" s="16">
+        <v>267</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="8"/>
@@ -5068,86 +5075,86 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="10"/>
       <c r="H51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
+        <v>283</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>31</v>
@@ -5156,126 +5163,126 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5287,70 +5294,70 @@
         <v>25</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5362,109 +5369,109 @@
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="10"/>
       <c r="H65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="8"/>
@@ -5473,15 +5480,15 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="8"/>
@@ -5490,40 +5497,40 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="8"/>
@@ -5532,65 +5539,65 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>21</v>
@@ -5599,119 +5606,119 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
+        <v>362</v>
+      </c>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
+        <v>366</v>
+      </c>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="15">
-        <v>366</v>
-      </c>
-      <c r="B75" t="s" s="16">
-        <v>262</v>
-      </c>
-      <c r="C75" s="10"/>
+      <c r="A75" t="s" s="14">
+        <v>367</v>
+      </c>
+      <c r="B75" t="s" s="15">
+        <v>263</v>
+      </c>
+      <c r="C75" s="19"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
+        <v>369</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B76" t="s" s="17">
-        <v>172</v>
+        <v>370</v>
+      </c>
+      <c r="B76" t="s" s="16">
+        <v>173</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="11"/>
+      <c r="G76" s="10"/>
       <c r="H76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
+        <v>372</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>21</v>
@@ -5720,19 +5727,19 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="11"/>
+      <c r="G77" s="10"/>
       <c r="H77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
+        <v>375</v>
+      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>21</v>
@@ -5741,26 +5748,26 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5772,13 +5779,13 @@
         <v>15</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="8"/>
@@ -5787,15 +5794,15 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="10"/>
       <c r="H80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="8"/>
@@ -5804,136 +5811,136 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="11"/>
+      <c r="G81" s="10"/>
       <c r="H81" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
+        <v>391</v>
+      </c>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
+        <v>397</v>
+      </c>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
+        <v>216</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="8"/>
@@ -5942,65 +5949,65 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="11"/>
+      <c r="G87" s="10"/>
       <c r="H87" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
+        <v>417</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="8"/>
@@ -6009,36 +6016,36 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="8"/>
@@ -6047,15 +6054,15 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="11"/>
+      <c r="G92" s="10"/>
       <c r="H92" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="I92" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="8"/>
@@ -6064,44 +6071,44 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="11"/>
+      <c r="G93" s="10"/>
       <c r="H93" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
+        <v>431</v>
+      </c>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>21</v>
@@ -6110,44 +6117,44 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
+        <v>436</v>
+      </c>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
+        <v>442</v>
+      </c>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="8"/>
@@ -6156,19 +6163,19 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
+        <v>440</v>
+      </c>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>21</v>
@@ -6177,19 +6184,19 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
+        <v>442</v>
+      </c>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="8"/>
@@ -6198,40 +6205,40 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="11"/>
+      <c r="G99" s="10"/>
       <c r="H99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
+        <v>442</v>
+      </c>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="8"/>
@@ -6240,157 +6247,157 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
+        <v>451</v>
+      </c>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
+        <v>458</v>
+      </c>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H106" t="s" s="19">
-        <v>473</v>
-      </c>
-      <c r="I106" t="s" s="19">
+        <v>344</v>
+      </c>
+      <c r="H106" t="s" s="18">
         <v>474</v>
       </c>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
+      <c r="I106" t="s" s="18">
+        <v>475</v>
+      </c>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H107" t="s" s="19">
         <v>479</v>
       </c>
-      <c r="I107" t="s" s="19">
+      <c r="H107" t="s" s="18">
         <v>480</v>
       </c>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
+      <c r="I107" t="s" s="18">
+        <v>481</v>
+      </c>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="A108" s="8"/>
@@ -6399,201 +6406,201 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H108" t="s" s="19">
-        <v>482</v>
-      </c>
-      <c r="I108" t="s" s="19">
+        <v>479</v>
+      </c>
+      <c r="H108" t="s" s="18">
         <v>483</v>
       </c>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
+      <c r="I108" t="s" s="18">
+        <v>484</v>
+      </c>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="H109" t="s" s="19">
         <v>488</v>
       </c>
-      <c r="I109" t="s" s="19">
+      <c r="H109" t="s" s="18">
         <v>489</v>
       </c>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
+      <c r="I109" t="s" s="18">
+        <v>490</v>
+      </c>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H110" t="s" s="19">
         <v>494</v>
       </c>
-      <c r="I110" t="s" s="19">
+      <c r="H110" t="s" s="18">
         <v>495</v>
       </c>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
+      <c r="I110" t="s" s="18">
+        <v>496</v>
+      </c>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H111" t="s" s="19">
         <v>499</v>
       </c>
-      <c r="I111" t="s" s="19">
+      <c r="H111" t="s" s="18">
         <v>500</v>
       </c>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
+      <c r="I111" t="s" s="18">
+        <v>501</v>
+      </c>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="H112" t="s" s="19">
         <v>505</v>
       </c>
-      <c r="I112" t="s" s="19">
+      <c r="H112" t="s" s="18">
         <v>506</v>
       </c>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
+      <c r="I112" t="s" s="18">
+        <v>507</v>
+      </c>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="H113" t="s" s="19">
         <v>511</v>
       </c>
-      <c r="I113" t="s" s="19">
-        <v>506</v>
-      </c>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
+      <c r="H113" t="s" s="18">
+        <v>512</v>
+      </c>
+      <c r="I113" t="s" s="18">
+        <v>507</v>
+      </c>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="H114" t="s" s="19">
         <v>516</v>
       </c>
-      <c r="I114" t="s" s="19">
+      <c r="H114" t="s" s="18">
         <v>517</v>
       </c>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
+      <c r="I114" t="s" s="18">
+        <v>518</v>
+      </c>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="H115" t="s" s="19">
         <v>522</v>
       </c>
-      <c r="I115" t="s" s="19">
+      <c r="H115" t="s" s="18">
         <v>523</v>
       </c>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
+      <c r="I115" t="s" s="18">
+        <v>524</v>
+      </c>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -6604,14 +6611,14 @@
       <c r="G116" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H116" t="s" s="19">
-        <v>526</v>
-      </c>
-      <c r="I116" t="s" s="19">
-        <v>506</v>
-      </c>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
+      <c r="H116" t="s" s="18">
+        <v>527</v>
+      </c>
+      <c r="I116" t="s" s="18">
+        <v>507</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="8"/>
@@ -6620,19 +6627,19 @@
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H117" t="s" s="19">
-        <v>528</v>
-      </c>
-      <c r="I117" t="s" s="19">
-        <v>500</v>
-      </c>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
+      <c r="H117" t="s" s="18">
+        <v>529</v>
+      </c>
+      <c r="I117" t="s" s="18">
+        <v>501</v>
+      </c>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="8"/>
@@ -6641,65 +6648,65 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H118" t="s" s="19">
-        <v>530</v>
-      </c>
-      <c r="I118" t="s" s="19">
-        <v>495</v>
-      </c>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
+      <c r="H118" t="s" s="18">
+        <v>531</v>
+      </c>
+      <c r="I118" t="s" s="18">
+        <v>496</v>
+      </c>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H119" t="s" s="19">
-        <v>534</v>
-      </c>
-      <c r="I119" t="s" s="19">
+        <v>494</v>
+      </c>
+      <c r="H119" t="s" s="18">
         <v>535</v>
       </c>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
+      <c r="I119" t="s" s="18">
+        <v>536</v>
+      </c>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="11"/>
-      <c r="H120" t="s" s="19">
-        <v>538</v>
-      </c>
-      <c r="I120" t="s" s="19">
+      <c r="G120" s="10"/>
+      <c r="H120" t="s" s="18">
         <v>539</v>
       </c>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
+      <c r="I120" t="s" s="18">
+        <v>540</v>
+      </c>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="8"/>
@@ -6708,19 +6715,19 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H121" t="s" s="19">
-        <v>541</v>
-      </c>
-      <c r="I121" t="s" s="19">
+        <v>494</v>
+      </c>
+      <c r="H121" t="s" s="18">
         <v>542</v>
       </c>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
+      <c r="I121" t="s" s="18">
+        <v>543</v>
+      </c>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="A122" s="8"/>
@@ -6729,19 +6736,19 @@
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H122" t="s" s="19">
-        <v>544</v>
-      </c>
-      <c r="I122" t="s" s="19">
-        <v>517</v>
-      </c>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
+        <v>494</v>
+      </c>
+      <c r="H122" t="s" s="18">
+        <v>545</v>
+      </c>
+      <c r="I122" t="s" s="18">
+        <v>518</v>
+      </c>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" s="8"/>
@@ -6750,182 +6757,182 @@
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H123" t="s" s="19">
-        <v>546</v>
-      </c>
-      <c r="I123" t="s" s="19">
-        <v>122</v>
-      </c>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
+        <v>494</v>
+      </c>
+      <c r="H123" t="s" s="18">
+        <v>547</v>
+      </c>
+      <c r="I123" t="s" s="18">
+        <v>123</v>
+      </c>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="H124" t="s" s="19">
         <v>551</v>
       </c>
-      <c r="I124" t="s" s="19">
+      <c r="H124" t="s" s="18">
         <v>552</v>
       </c>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
+      <c r="I124" t="s" s="18">
+        <v>553</v>
+      </c>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="H125" t="s" s="19">
-        <v>555</v>
-      </c>
-      <c r="I125" t="s" s="19">
+        <v>103</v>
+      </c>
+      <c r="H125" t="s" s="18">
         <v>556</v>
       </c>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
+      <c r="I125" t="s" s="18">
+        <v>557</v>
+      </c>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="11"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="H126" t="s" s="19">
-        <v>558</v>
-      </c>
-      <c r="I126" t="s" s="19">
+        <v>103</v>
+      </c>
+      <c r="H126" t="s" s="18">
         <v>559</v>
       </c>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
+      <c r="I126" t="s" s="18">
+        <v>560</v>
+      </c>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="11"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H127" t="s" s="19">
-        <v>561</v>
-      </c>
-      <c r="I127" t="s" s="19">
-        <v>122</v>
-      </c>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="H127" t="s" s="18">
+        <v>562</v>
+      </c>
+      <c r="I127" t="s" s="18">
+        <v>123</v>
+      </c>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="11"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H128" t="s" s="19">
-        <v>563</v>
-      </c>
-      <c r="I128" t="s" s="19">
+        <v>109</v>
+      </c>
+      <c r="H128" t="s" s="18">
         <v>564</v>
       </c>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
+      <c r="I128" t="s" s="18">
+        <v>565</v>
+      </c>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H129" t="s" s="19">
-        <v>568</v>
-      </c>
-      <c r="I129" t="s" s="19">
+        <v>499</v>
+      </c>
+      <c r="H129" t="s" s="18">
         <v>569</v>
       </c>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
+      <c r="I129" t="s" s="18">
+        <v>570</v>
+      </c>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H130" t="s" s="19">
-        <v>573</v>
-      </c>
-      <c r="I130" t="s" s="19">
+        <v>499</v>
+      </c>
+      <c r="H130" t="s" s="18">
         <v>574</v>
       </c>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
+      <c r="I130" t="s" s="18">
+        <v>575</v>
+      </c>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="8"/>
@@ -6934,19 +6941,19 @@
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H131" t="s" s="19">
-        <v>576</v>
-      </c>
-      <c r="I131" t="s" s="19">
+        <v>499</v>
+      </c>
+      <c r="H131" t="s" s="18">
         <v>577</v>
       </c>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
+      <c r="I131" t="s" s="18">
+        <v>578</v>
+      </c>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="A132" s="8"/>
@@ -6955,19 +6962,19 @@
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H132" t="s" s="19">
-        <v>579</v>
-      </c>
-      <c r="I132" t="s" s="19">
+        <v>499</v>
+      </c>
+      <c r="H132" t="s" s="18">
         <v>580</v>
       </c>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
+      <c r="I132" t="s" s="18">
+        <v>581</v>
+      </c>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="A133" s="8"/>
@@ -6976,19 +6983,19 @@
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H133" t="s" s="19">
-        <v>582</v>
-      </c>
-      <c r="I133" t="s" s="19">
-        <v>552</v>
-      </c>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="H133" t="s" s="18">
+        <v>583</v>
+      </c>
+      <c r="I133" t="s" s="18">
+        <v>553</v>
+      </c>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="A134" s="8"/>
@@ -6997,136 +7004,136 @@
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H134" t="s" s="19">
-        <v>584</v>
-      </c>
-      <c r="I134" t="s" s="19">
+        <v>499</v>
+      </c>
+      <c r="H134" t="s" s="18">
         <v>585</v>
       </c>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
+      <c r="I134" t="s" s="18">
+        <v>586</v>
+      </c>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H135" t="s" s="19">
-        <v>589</v>
-      </c>
-      <c r="I135" t="s" s="19">
+        <v>109</v>
+      </c>
+      <c r="H135" t="s" s="18">
         <v>590</v>
       </c>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
+      <c r="I135" t="s" s="18">
+        <v>591</v>
+      </c>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="11"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H136" t="s" s="19">
-        <v>592</v>
-      </c>
-      <c r="I136" t="s" s="19">
-        <v>556</v>
-      </c>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H136" t="s" s="18">
+        <v>593</v>
+      </c>
+      <c r="I136" t="s" s="18">
+        <v>557</v>
+      </c>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="11"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H137" t="s" s="19">
-        <v>594</v>
-      </c>
-      <c r="I137" t="s" s="19">
-        <v>122</v>
-      </c>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H137" t="s" s="18">
+        <v>595</v>
+      </c>
+      <c r="I137" t="s" s="18">
+        <v>123</v>
+      </c>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H138" t="s" s="19">
-        <v>598</v>
-      </c>
-      <c r="I138" t="s" s="19">
+        <v>109</v>
+      </c>
+      <c r="H138" t="s" s="18">
         <v>599</v>
       </c>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
+      <c r="I138" t="s" s="18">
+        <v>600</v>
+      </c>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H139" t="s" s="19">
-        <v>530</v>
-      </c>
-      <c r="I139" t="s" s="19">
-        <v>556</v>
-      </c>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="H139" t="s" s="18">
+        <v>531</v>
+      </c>
+      <c r="I139" t="s" s="18">
+        <v>557</v>
+      </c>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="A140" s="8"/>
@@ -7135,86 +7142,86 @@
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="11"/>
-      <c r="H140" t="s" s="19">
-        <v>602</v>
-      </c>
-      <c r="I140" t="s" s="19">
-        <v>599</v>
-      </c>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
+      <c r="G140" s="10"/>
+      <c r="H140" t="s" s="18">
+        <v>603</v>
+      </c>
+      <c r="I140" t="s" s="18">
+        <v>600</v>
+      </c>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="11"/>
+      <c r="A141" s="10"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="H141" t="s" s="19">
-        <v>604</v>
-      </c>
-      <c r="I141" t="s" s="19">
+        <v>434</v>
+      </c>
+      <c r="H141" t="s" s="18">
         <v>605</v>
       </c>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
+      <c r="I141" t="s" s="18">
+        <v>606</v>
+      </c>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="H142" t="s" s="19">
-        <v>609</v>
-      </c>
-      <c r="I142" t="s" s="19">
-        <v>517</v>
-      </c>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
+        <v>440</v>
+      </c>
+      <c r="H142" t="s" s="18">
+        <v>610</v>
+      </c>
+      <c r="I142" t="s" s="18">
+        <v>518</v>
+      </c>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H143" t="s" s="19">
-        <v>613</v>
-      </c>
-      <c r="I143" t="s" s="19">
-        <v>168</v>
-      </c>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H143" t="s" s="18">
+        <v>614</v>
+      </c>
+      <c r="I143" t="s" s="18">
+        <v>169</v>
+      </c>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="A144" s="8"/>
@@ -7223,19 +7230,19 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H144" t="s" s="19">
-        <v>615</v>
-      </c>
-      <c r="I144" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H144" t="s" s="18">
+        <v>616</v>
+      </c>
+      <c r="I144" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="A145" s="8"/>
@@ -7244,119 +7251,119 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H145" t="s" s="19">
-        <v>617</v>
-      </c>
-      <c r="I145" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H145" t="s" s="18">
+        <v>618</v>
+      </c>
+      <c r="I145" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="H146" t="s" s="19">
-        <v>621</v>
-      </c>
-      <c r="I146" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
+        <v>451</v>
+      </c>
+      <c r="H146" t="s" s="18">
+        <v>622</v>
+      </c>
+      <c r="I146" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="H147" t="s" s="19">
-        <v>624</v>
-      </c>
-      <c r="I147" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
+        <v>458</v>
+      </c>
+      <c r="H147" t="s" s="18">
+        <v>625</v>
+      </c>
+      <c r="I147" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="H148" t="s" s="19">
-        <v>628</v>
-      </c>
-      <c r="I148" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
+        <v>462</v>
+      </c>
+      <c r="H148" t="s" s="18">
+        <v>629</v>
+      </c>
+      <c r="I148" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="H149" t="s" s="19">
-        <v>631</v>
-      </c>
-      <c r="I149" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J149" s="11"/>
-      <c r="K149" s="11"/>
+        <v>467</v>
+      </c>
+      <c r="H149" t="s" s="18">
+        <v>632</v>
+      </c>
+      <c r="I149" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="A150" s="8"/>
@@ -7365,2078 +7372,2078 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="H150" t="s" s="19">
-        <v>633</v>
-      </c>
-      <c r="I150" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
+        <v>467</v>
+      </c>
+      <c r="H150" t="s" s="18">
+        <v>634</v>
+      </c>
+      <c r="I150" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H151" t="s" s="19">
-        <v>636</v>
-      </c>
-      <c r="I151" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="H151" t="s" s="18">
+        <v>637</v>
+      </c>
+      <c r="I151" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H152" t="s" s="19">
-        <v>638</v>
-      </c>
-      <c r="I152" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="H152" t="s" s="18">
+        <v>639</v>
+      </c>
+      <c r="I152" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H153" t="s" s="19">
-        <v>641</v>
-      </c>
-      <c r="I153" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
+        <v>479</v>
+      </c>
+      <c r="H153" t="s" s="18">
+        <v>642</v>
+      </c>
+      <c r="I153" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="11"/>
+      <c r="A154" s="10"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="H154" t="s" s="19">
-        <v>643</v>
-      </c>
-      <c r="I154" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
+        <v>488</v>
+      </c>
+      <c r="H154" t="s" s="18">
+        <v>644</v>
+      </c>
+      <c r="I154" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H155" t="s" s="19">
-        <v>647</v>
-      </c>
-      <c r="I155" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
+        <v>494</v>
+      </c>
+      <c r="H155" t="s" s="18">
+        <v>648</v>
+      </c>
+      <c r="I155" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H156" t="s" s="19">
-        <v>650</v>
-      </c>
-      <c r="I156" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="H156" t="s" s="18">
+        <v>651</v>
+      </c>
+      <c r="I156" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
     </row>
     <row r="157" ht="17" customHeight="1">
       <c r="A157" t="s" s="22">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B157" t="s" s="22">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="H157" t="s" s="19">
-        <v>653</v>
-      </c>
-      <c r="I157" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J157" s="11"/>
-      <c r="K157" s="11"/>
+        <v>505</v>
+      </c>
+      <c r="H157" t="s" s="18">
+        <v>654</v>
+      </c>
+      <c r="I157" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H158" t="s" s="19">
-        <v>655</v>
-      </c>
-      <c r="I158" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
+        <v>479</v>
+      </c>
+      <c r="H158" t="s" s="18">
+        <v>656</v>
+      </c>
+      <c r="I158" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H159" t="s" s="19">
-        <v>659</v>
-      </c>
-      <c r="I159" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
+        <v>479</v>
+      </c>
+      <c r="H159" t="s" s="18">
+        <v>660</v>
+      </c>
+      <c r="I159" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="H160" t="s" s="19">
         <v>664</v>
       </c>
-      <c r="I160" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
+      <c r="H160" t="s" s="18">
+        <v>665</v>
+      </c>
+      <c r="I160" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="H161" t="s" s="19">
         <v>669</v>
       </c>
-      <c r="I161" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J161" s="11"/>
-      <c r="K161" s="11"/>
+      <c r="H161" t="s" s="18">
+        <v>670</v>
+      </c>
+      <c r="I161" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="H162" t="s" s="19">
         <v>674</v>
       </c>
-      <c r="I162" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J162" s="11"/>
-      <c r="K162" s="11"/>
+      <c r="H162" t="s" s="18">
+        <v>675</v>
+      </c>
+      <c r="I162" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="11"/>
-      <c r="H163" t="s" s="19">
-        <v>219</v>
-      </c>
-      <c r="I163" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
+      <c r="G163" s="10"/>
+      <c r="H163" t="s" s="18">
+        <v>220</v>
+      </c>
+      <c r="I163" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" t="s" s="19">
-        <v>679</v>
-      </c>
-      <c r="G164" t="s" s="19">
+      <c r="F164" t="s" s="18">
         <v>680</v>
       </c>
-      <c r="H164" t="s" s="19">
+      <c r="G164" t="s" s="18">
         <v>681</v>
       </c>
-      <c r="I164" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
+      <c r="H164" t="s" s="18">
+        <v>682</v>
+      </c>
+      <c r="I164" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="11"/>
-      <c r="H165" t="s" s="19">
-        <v>684</v>
-      </c>
-      <c r="I165" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
+      <c r="G165" s="10"/>
+      <c r="H165" t="s" s="18">
+        <v>685</v>
+      </c>
+      <c r="I165" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="H166" t="s" s="19">
         <v>689</v>
       </c>
-      <c r="I166" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
+      <c r="H166" t="s" s="18">
+        <v>690</v>
+      </c>
+      <c r="I166" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="H167" t="s" s="19">
         <v>693</v>
       </c>
-      <c r="I167" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
+      <c r="H167" t="s" s="18">
+        <v>694</v>
+      </c>
+      <c r="I167" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
     </row>
     <row r="168" ht="15" customHeight="1">
-      <c r="A168" s="11"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="H168" t="s" s="19">
         <v>696</v>
       </c>
-      <c r="I168" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
+      <c r="H168" t="s" s="18">
+        <v>697</v>
+      </c>
+      <c r="I168" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="A169" s="11"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="H169" t="s" s="19">
         <v>699</v>
       </c>
-      <c r="I169" t="s" s="19">
-        <v>213</v>
-      </c>
-      <c r="J169" s="11"/>
-      <c r="K169" s="11"/>
+      <c r="H169" t="s" s="18">
+        <v>700</v>
+      </c>
+      <c r="I169" t="s" s="18">
+        <v>214</v>
+      </c>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="A170" s="11"/>
+      <c r="A170" s="10"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
+        <v>702</v>
+      </c>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="A171" s="11"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="11"/>
+        <v>704</v>
+      </c>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" s="11"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="11"/>
+        <v>706</v>
+      </c>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" s="11"/>
+      <c r="A173" s="10"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
+        <v>708</v>
+      </c>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="11"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="11"/>
+        <v>710</v>
+      </c>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="A175" s="11"/>
+      <c r="A175" s="10"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="11"/>
+        <v>712</v>
+      </c>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="11"/>
+      <c r="A176" s="10"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="G176" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="G176" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="11"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
     </row>
     <row r="177" ht="15" customHeight="1">
-      <c r="A177" s="11"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="11"/>
+        <v>715</v>
+      </c>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="A178" s="11"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="G178" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="G178" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="A179" s="11"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11"/>
+        <v>718</v>
+      </c>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="A180" s="11"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="11"/>
+        <v>720</v>
+      </c>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
     </row>
     <row r="181" ht="15" customHeight="1">
-      <c r="A181" s="11"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="11"/>
+        <v>722</v>
+      </c>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" s="11"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="11"/>
+        <v>724</v>
+      </c>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="A183" s="11"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="11"/>
+        <v>726</v>
+      </c>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="A184" s="11"/>
+      <c r="A184" s="10"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-      <c r="J184" s="11"/>
-      <c r="K184" s="11"/>
+        <v>728</v>
+      </c>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="11"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="G185" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="G185" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="J185" s="11"/>
-      <c r="K185" s="11"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="A186" s="11"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-      <c r="J186" s="11"/>
-      <c r="K186" s="11"/>
+        <v>731</v>
+      </c>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
     </row>
     <row r="187" ht="15" customHeight="1">
-      <c r="A187" s="11"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="11"/>
+        <v>733</v>
+      </c>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
     </row>
     <row r="188" ht="15" customHeight="1">
-      <c r="A188" s="11"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="11"/>
+        <v>735</v>
+      </c>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="11"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="11"/>
-      <c r="K189" s="11"/>
+        <v>737</v>
+      </c>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
     </row>
     <row r="190" ht="15" customHeight="1">
-      <c r="A190" s="11"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
-      <c r="J190" s="11"/>
-      <c r="K190" s="11"/>
+        <v>739</v>
+      </c>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
     </row>
     <row r="191" ht="15" customHeight="1">
-      <c r="A191" s="11"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="G191" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="G191" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
-      <c r="J191" s="11"/>
-      <c r="K191" s="11"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
     </row>
     <row r="192" ht="15" customHeight="1">
-      <c r="A192" s="11"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-      <c r="J192" s="11"/>
-      <c r="K192" s="11"/>
+        <v>742</v>
+      </c>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
     </row>
     <row r="193" ht="15" customHeight="1">
-      <c r="A193" s="11"/>
+      <c r="A193" s="10"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="11"/>
+        <v>744</v>
+      </c>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="A194" s="11"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
     </row>
     <row r="195" ht="15" customHeight="1">
-      <c r="A195" s="11"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
     </row>
     <row r="196" ht="15" customHeight="1">
-      <c r="A196" s="11"/>
+      <c r="A196" s="10"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="A197" s="11"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
     </row>
     <row r="198" ht="15" customHeight="1">
-      <c r="A198" s="11"/>
+      <c r="A198" s="10"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
-      <c r="J198" s="11"/>
-      <c r="K198" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
     </row>
     <row r="199" ht="15" customHeight="1">
-      <c r="A199" s="11"/>
+      <c r="A199" s="10"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
     </row>
     <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="11"/>
+      <c r="A200" s="10"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
     </row>
     <row r="201" ht="15" customHeight="1">
-      <c r="A201" s="11"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
-      <c r="K201" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
     </row>
     <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="11"/>
+      <c r="A202" s="10"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="11"/>
-      <c r="K202" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
     </row>
     <row r="203" ht="15" customHeight="1">
-      <c r="A203" s="11"/>
+      <c r="A203" s="10"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
-      <c r="J203" s="11"/>
-      <c r="K203" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
     </row>
     <row r="204" ht="15" customHeight="1">
-      <c r="A204" s="11"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="11"/>
-      <c r="K204" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="K204" s="10"/>
     </row>
     <row r="205" ht="15" customHeight="1">
-      <c r="A205" s="11"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="11"/>
+        <v>699</v>
+      </c>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
     </row>
     <row r="206" ht="15" customHeight="1">
-      <c r="A206" s="11"/>
+      <c r="A206" s="10"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
-      <c r="K206" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
     </row>
     <row r="207" ht="15" customHeight="1">
-      <c r="A207" s="11"/>
+      <c r="A207" s="10"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
+        <v>754</v>
+      </c>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
     </row>
     <row r="208" ht="15" customHeight="1">
-      <c r="A208" s="11"/>
+      <c r="A208" s="10"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
     </row>
     <row r="209" ht="15" customHeight="1">
-      <c r="A209" s="11"/>
+      <c r="A209" s="10"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
     </row>
     <row r="210" ht="15" customHeight="1">
-      <c r="A210" s="11"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G210" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
     </row>
     <row r="211" ht="15" customHeight="1">
-      <c r="A211" s="11"/>
+      <c r="A211" s="10"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
     </row>
     <row r="212" ht="15" customHeight="1">
-      <c r="A212" s="11"/>
+      <c r="A212" s="10"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H212" s="11"/>
-      <c r="I212" s="11"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
     </row>
     <row r="213" ht="15" customHeight="1">
-      <c r="A213" s="11"/>
+      <c r="A213" s="10"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H213" s="11"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="11"/>
-      <c r="K213" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
     </row>
     <row r="214" ht="15" customHeight="1">
-      <c r="A214" s="11"/>
+      <c r="A214" s="10"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="H214" s="11"/>
-      <c r="I214" s="11"/>
-      <c r="J214" s="11"/>
-      <c r="K214" s="11"/>
+        <v>715</v>
+      </c>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+      <c r="K214" s="10"/>
     </row>
     <row r="215" ht="15" customHeight="1">
-      <c r="A215" s="11"/>
+      <c r="A215" s="10"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H215" s="11"/>
-      <c r="I215" s="11"/>
-      <c r="J215" s="11"/>
-      <c r="K215" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
     </row>
     <row r="216" ht="15" customHeight="1">
-      <c r="A216" s="11"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="H216" s="11"/>
-      <c r="I216" s="11"/>
-      <c r="J216" s="11"/>
-      <c r="K216" s="11"/>
+        <v>715</v>
+      </c>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
     </row>
     <row r="217" ht="15" customHeight="1">
-      <c r="A217" s="11"/>
+      <c r="A217" s="10"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H217" s="11"/>
-      <c r="I217" s="11"/>
-      <c r="J217" s="11"/>
-      <c r="K217" s="11"/>
+        <v>479</v>
+      </c>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
     </row>
     <row r="218" ht="15" customHeight="1">
-      <c r="A218" s="11"/>
+      <c r="A218" s="10"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H218" s="11"/>
-      <c r="I218" s="11"/>
-      <c r="J218" s="11"/>
-      <c r="K218" s="11"/>
+        <v>494</v>
+      </c>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
     </row>
     <row r="219" ht="15" customHeight="1">
-      <c r="A219" s="11"/>
+      <c r="A219" s="10"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H219" s="11"/>
-      <c r="I219" s="11"/>
-      <c r="J219" s="11"/>
-      <c r="K219" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
     </row>
     <row r="220" ht="15" customHeight="1">
-      <c r="A220" s="11"/>
+      <c r="A220" s="10"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="H220" s="11"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="11"/>
-      <c r="K220" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
     </row>
     <row r="221" ht="15" customHeight="1">
-      <c r="A221" s="11"/>
+      <c r="A221" s="10"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="H221" s="11"/>
-      <c r="I221" s="11"/>
-      <c r="J221" s="11"/>
-      <c r="K221" s="11"/>
+        <v>715</v>
+      </c>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
     </row>
     <row r="222" ht="15" customHeight="1">
-      <c r="A222" s="11"/>
+      <c r="A222" s="10"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="H222" s="11"/>
-      <c r="I222" s="11"/>
-      <c r="J222" s="11"/>
-      <c r="K222" s="11"/>
+        <v>479</v>
+      </c>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
     </row>
     <row r="223" ht="15" customHeight="1">
-      <c r="A223" s="11"/>
+      <c r="A223" s="10"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H223" s="11"/>
-      <c r="I223" s="11"/>
-      <c r="J223" s="11"/>
-      <c r="K223" s="11"/>
+        <v>494</v>
+      </c>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
     </row>
     <row r="224" ht="15" customHeight="1">
-      <c r="A224" s="11"/>
+      <c r="A224" s="10"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H224" s="11"/>
-      <c r="I224" s="11"/>
-      <c r="J224" s="11"/>
-      <c r="K224" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
     </row>
     <row r="225" ht="15" customHeight="1">
-      <c r="A225" s="11"/>
+      <c r="A225" s="10"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="H225" s="11"/>
-      <c r="I225" s="11"/>
-      <c r="J225" s="11"/>
-      <c r="K225" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
     </row>
     <row r="226" ht="15" customHeight="1">
-      <c r="A226" s="11"/>
+      <c r="A226" s="10"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H226" s="11"/>
-      <c r="I226" s="11"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
     </row>
     <row r="227" ht="15" customHeight="1">
-      <c r="A227" s="11"/>
+      <c r="A227" s="10"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H227" s="11"/>
-      <c r="I227" s="11"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
     </row>
     <row r="228" ht="15" customHeight="1">
-      <c r="A228" s="11"/>
+      <c r="A228" s="10"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H228" s="11"/>
-      <c r="I228" s="11"/>
-      <c r="J228" s="11"/>
-      <c r="K228" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
     </row>
     <row r="229" ht="15" customHeight="1">
-      <c r="A229" s="11"/>
+      <c r="A229" s="10"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H229" s="11"/>
-      <c r="I229" s="11"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="11"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
     </row>
     <row r="230" ht="15" customHeight="1">
-      <c r="A230" s="11"/>
+      <c r="A230" s="10"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H230" s="11"/>
-      <c r="I230" s="11"/>
-      <c r="J230" s="11"/>
-      <c r="K230" s="11"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
     </row>
     <row r="231" ht="15" customHeight="1">
-      <c r="A231" s="11"/>
+      <c r="A231" s="10"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="H231" s="11"/>
-      <c r="I231" s="11"/>
-      <c r="J231" s="11"/>
-      <c r="K231" s="11"/>
+        <v>494</v>
+      </c>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
     </row>
     <row r="232" ht="15" customHeight="1">
-      <c r="A232" s="11"/>
+      <c r="A232" s="10"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H232" s="11"/>
-      <c r="I232" s="11"/>
-      <c r="J232" s="11"/>
-      <c r="K232" s="11"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
     </row>
     <row r="233" ht="15" customHeight="1">
-      <c r="A233" s="11"/>
+      <c r="A233" s="10"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H233" s="11"/>
-      <c r="I233" s="11"/>
-      <c r="J233" s="11"/>
-      <c r="K233" s="11"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
     </row>
     <row r="234" ht="15" customHeight="1">
-      <c r="A234" s="11"/>
+      <c r="A234" s="10"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H234" s="11"/>
-      <c r="I234" s="11"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
     </row>
     <row r="235" ht="15" customHeight="1">
-      <c r="A235" s="11"/>
+      <c r="A235" s="10"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H235" s="11"/>
-      <c r="I235" s="11"/>
-      <c r="J235" s="11"/>
-      <c r="K235" s="11"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
     </row>
     <row r="236" ht="15" customHeight="1">
-      <c r="A236" s="11"/>
+      <c r="A236" s="10"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G236" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="H236" s="11"/>
-      <c r="I236" s="11"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
     </row>
     <row r="237" ht="15" customHeight="1">
-      <c r="A237" s="11"/>
+      <c r="A237" s="10"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="H237" s="11"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
     </row>
     <row r="238" ht="15" customHeight="1">
-      <c r="A238" s="11"/>
+      <c r="A238" s="10"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="H238" s="11"/>
-      <c r="I238" s="11"/>
-      <c r="J238" s="11"/>
-      <c r="K238" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="K238" s="10"/>
     </row>
     <row r="239" ht="15" customHeight="1">
-      <c r="A239" s="11"/>
+      <c r="A239" s="10"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G239" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H239" s="11"/>
-      <c r="I239" s="11"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
     </row>
     <row r="240" ht="15" customHeight="1">
-      <c r="A240" s="11"/>
+      <c r="A240" s="10"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="H240" s="11"/>
-      <c r="I240" s="11"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
     </row>
     <row r="241" ht="15" customHeight="1">
-      <c r="A241" s="11"/>
+      <c r="A241" s="10"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
-      <c r="G241" s="11"/>
-      <c r="H241" s="11"/>
-      <c r="I241" s="11"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="11"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
     </row>
     <row r="242" ht="15" customHeight="1">
-      <c r="A242" s="11"/>
+      <c r="A242" s="10"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="H242" s="11"/>
-      <c r="I242" s="11"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="11"/>
+        <v>505</v>
+      </c>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
     </row>
     <row r="243" ht="15" customHeight="1">
-      <c r="A243" s="11"/>
+      <c r="A243" s="10"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="H243" s="11"/>
-      <c r="I243" s="11"/>
-      <c r="J243" s="11"/>
-      <c r="K243" s="11"/>
+        <v>780</v>
+      </c>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
     </row>
     <row r="244" ht="15" customHeight="1">
-      <c r="A244" s="11"/>
+      <c r="A244" s="10"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="H244" s="11"/>
-      <c r="I244" s="11"/>
-      <c r="J244" s="11"/>
-      <c r="K244" s="11"/>
+        <v>782</v>
+      </c>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
     </row>
     <row r="245" ht="15" customHeight="1">
-      <c r="A245" s="11"/>
+      <c r="A245" s="10"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="H245" s="11"/>
-      <c r="I245" s="11"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="11"/>
+        <v>784</v>
+      </c>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
     </row>
     <row r="246" ht="15" customHeight="1">
-      <c r="A246" s="11"/>
+      <c r="A246" s="10"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G246" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="H246" s="11"/>
-      <c r="I246" s="11"/>
-      <c r="J246" s="11"/>
-      <c r="K246" s="11"/>
+        <v>786</v>
+      </c>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
     </row>
     <row r="247" ht="15" customHeight="1">
-      <c r="A247" s="11"/>
+      <c r="A247" s="10"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
-      <c r="J247" s="11"/>
-      <c r="K247" s="11"/>
+        <v>788</v>
+      </c>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
     </row>
     <row r="248" ht="15" customHeight="1">
-      <c r="A248" s="11"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="H248" s="11"/>
-      <c r="I248" s="11"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="11"/>
+        <v>790</v>
+      </c>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
     </row>
     <row r="249" ht="15" customHeight="1">
-      <c r="A249" s="11"/>
+      <c r="A249" s="10"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
     </row>
     <row r="250" ht="15" customHeight="1">
-      <c r="A250" s="11"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G250" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="H250" s="11"/>
-      <c r="I250" s="11"/>
-      <c r="J250" s="11"/>
-      <c r="K250" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
     </row>
     <row r="251" ht="15" customHeight="1">
-      <c r="A251" s="11"/>
+      <c r="A251" s="10"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="11"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10"/>
     </row>
     <row r="252" ht="15" customHeight="1">
-      <c r="A252" s="11"/>
+      <c r="A252" s="10"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="H252" s="11"/>
-      <c r="I252" s="11"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="11"/>
+        <v>794</v>
+      </c>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10"/>
     </row>
     <row r="253" ht="15" customHeight="1">
-      <c r="A253" s="11"/>
+      <c r="A253" s="10"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G253" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="H253" s="11"/>
-      <c r="I253" s="11"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10"/>
     </row>
     <row r="254" ht="15" customHeight="1">
-      <c r="A254" s="11"/>
+      <c r="A254" s="10"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G254" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="H254" s="11"/>
-      <c r="I254" s="11"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="11"/>
+        <v>797</v>
+      </c>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="10"/>
     </row>
     <row r="255" ht="15" customHeight="1">
-      <c r="A255" s="11"/>
+      <c r="A255" s="10"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G255" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="H255" s="11"/>
-      <c r="I255" s="11"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="11"/>
+        <v>799</v>
+      </c>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
     </row>
     <row r="256" ht="15" customHeight="1">
-      <c r="A256" s="11"/>
+      <c r="A256" s="10"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="J256" s="11"/>
-      <c r="K256" s="11"/>
+        <v>801</v>
+      </c>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
     </row>
     <row r="257" ht="15" customHeight="1">
-      <c r="A257" s="11"/>
+      <c r="A257" s="10"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G257" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="H257" s="11"/>
-      <c r="I257" s="11"/>
-      <c r="J257" s="11"/>
-      <c r="K257" s="11"/>
+        <v>803</v>
+      </c>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="K257" s="10"/>
     </row>
     <row r="258" ht="15" customHeight="1">
-      <c r="A258" s="11"/>
+      <c r="A258" s="10"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G258" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="H258" s="11"/>
-      <c r="I258" s="11"/>
-      <c r="J258" s="11"/>
-      <c r="K258" s="11"/>
+        <v>805</v>
+      </c>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
     </row>
     <row r="259" ht="15" customHeight="1">
-      <c r="A259" s="11"/>
+      <c r="A259" s="10"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G259" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="H259" s="11"/>
-      <c r="I259" s="11"/>
-      <c r="J259" s="11"/>
-      <c r="K259" s="11"/>
+        <v>803</v>
+      </c>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
     </row>
     <row r="260" ht="15" customHeight="1">
-      <c r="A260" s="11"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="H260" s="11"/>
-      <c r="I260" s="11"/>
-      <c r="J260" s="11"/>
-      <c r="K260" s="11"/>
+        <v>808</v>
+      </c>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+      <c r="K260" s="10"/>
     </row>
     <row r="261" ht="15" customHeight="1">
-      <c r="A261" s="11"/>
+      <c r="A261" s="10"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G261" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="H261" s="11"/>
-      <c r="I261" s="11"/>
-      <c r="J261" s="11"/>
-      <c r="K261" s="11"/>
+        <v>810</v>
+      </c>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+      <c r="K261" s="10"/>
     </row>
     <row r="262" ht="15" customHeight="1">
-      <c r="A262" s="11"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="11"/>
-      <c r="J262" s="11"/>
-      <c r="K262" s="11"/>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="10"/>
+      <c r="K262" s="10"/>
     </row>
     <row r="263" ht="15" customHeight="1">
-      <c r="A263" s="11"/>
+      <c r="A263" s="10"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="11"/>
-      <c r="J263" s="11"/>
-      <c r="K263" s="11"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+      <c r="K263" s="10"/>
     </row>
     <row r="264" ht="15" customHeight="1">
-      <c r="A264" s="11"/>
+      <c r="A264" s="10"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="11"/>
-      <c r="J264" s="11"/>
-      <c r="K264" s="11"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
     </row>
     <row r="265" ht="15" customHeight="1">
-      <c r="A265" s="11"/>
+      <c r="A265" s="10"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="11"/>
-      <c r="K265" s="11"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="816">
   <si>
     <t>institutionCode</t>
   </si>
@@ -190,27 +190,30 @@
     <t>HOLOTPYE BY MONOTYPY</t>
   </si>
   <si>
+    <t>http://eol.org/schema/terms/holotypeByMonotypy</t>
+  </si>
+  <si>
+    <t>EGGS</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>http://biocol.org/urn:lsid:biocol.org:col:15465</t>
+  </si>
+  <si>
+    <t>MULTIPLE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/maleAndFemale</t>
+  </si>
+  <si>
+    <t>HOLOTYPE</t>
+  </si>
+  <si>
     <t>http://rs.tdwg.org/ontology/voc/TaxonName#Holotype</t>
   </si>
   <si>
-    <t>EGGS</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>http://biocol.org/urn:lsid:biocol.org:col:15465</t>
-  </si>
-  <si>
-    <t>MULTIPLE</t>
-  </si>
-  <si>
-    <t>http://eol.org/schema/terms/maleAndFemale</t>
-  </si>
-  <si>
-    <t>HOLOTYPE</t>
-  </si>
-  <si>
     <t>EMBRYO</t>
   </si>
   <si>
@@ -2444,6 +2447,18 @@
   </si>
   <si>
     <t>http://eol.org/schema/terms/paralectohapantotype</t>
+  </si>
+  <si>
+    <t>ERGATOTYPE</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/ergatotype</t>
+  </si>
+  <si>
+    <t>GENETIC VOUCHER</t>
+  </si>
+  <si>
+    <t>http://eol.org/schema/terms/geneticVoucher</t>
   </si>
 </sst>
 </file>
@@ -4041,231 +4056,231 @@
         <v>65</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s" s="11">
         <v>64</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
       <c r="F10" t="s" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s" s="6">
         <v>23</v>
       </c>
       <c r="F11" t="s" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F13" t="s" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F14" t="s" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F15" t="s" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>11</v>
@@ -4274,45 +4289,45 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>64</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -4324,10 +4339,10 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="10"/>
@@ -4336,29 +4351,29 @@
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -4370,16 +4385,16 @@
       <c r="D20" s="3"/>
       <c r="E20" s="8"/>
       <c r="F20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -4391,10 +4406,10 @@
       <c r="D21" s="3"/>
       <c r="E21" s="8"/>
       <c r="F21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="10"/>
@@ -4408,10 +4423,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="8"/>
       <c r="F22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="10"/>
@@ -4420,141 +4435,141 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s" s="14">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s" s="15">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s" s="15">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" t="s" s="16">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G27" t="s" s="16">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -4568,203 +4583,203 @@
       <c r="F28" s="3"/>
       <c r="G28" s="10"/>
       <c r="H28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>33</v>
       </c>
       <c r="F29" t="s" s="7">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" t="s" s="16">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s" s="16">
         <v>23</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>64</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>13</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" t="s" s="18">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" t="s" s="18">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -4773,17 +4788,17 @@
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" t="s" s="18">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="10"/>
@@ -4794,35 +4809,35 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4830,92 +4845,92 @@
       <c r="F38" s="3"/>
       <c r="G38" s="10"/>
       <c r="H38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>31</v>
@@ -4924,66 +4939,66 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="s" s="14">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B44" t="s" s="15">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -4997,10 +5012,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="10"/>
       <c r="H45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -5020,50 +5035,50 @@
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="16">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -5083,35 +5098,35 @@
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5119,42 +5134,42 @@
       <c r="F51" s="3"/>
       <c r="G51" s="10"/>
       <c r="H51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>31</v>
@@ -5163,126 +5178,126 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5294,70 +5309,70 @@
         <v>25</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5369,95 +5384,95 @@
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5465,10 +5480,10 @@
       <c r="F65" s="3"/>
       <c r="G65" s="10"/>
       <c r="H65" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -5480,10 +5495,10 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -5497,10 +5512,10 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -5509,25 +5524,25 @@
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -5547,57 +5562,57 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>21</v>
@@ -5606,101 +5621,101 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="s" s="14">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B75" t="s" s="15">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B76" t="s" s="16">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -5708,17 +5723,17 @@
       <c r="F76" s="3"/>
       <c r="G76" s="10"/>
       <c r="H76" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>21</v>
@@ -5729,17 +5744,17 @@
       <c r="F77" s="3"/>
       <c r="G77" s="10"/>
       <c r="H77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>21</v>
@@ -5748,26 +5763,26 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5779,10 +5794,10 @@
         <v>15</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -5796,10 +5811,10 @@
       <c r="F80" s="3"/>
       <c r="G80" s="10"/>
       <c r="H80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -5813,104 +5828,104 @@
       <c r="F81" s="3"/>
       <c r="G81" s="10"/>
       <c r="H81" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -5919,25 +5934,25 @@
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -5951,60 +5966,60 @@
       <c r="F87" s="3"/>
       <c r="G87" s="10"/>
       <c r="H87" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
@@ -6024,25 +6039,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -6056,10 +6071,10 @@
       <c r="F92" s="3"/>
       <c r="G92" s="10"/>
       <c r="H92" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -6073,42 +6088,42 @@
       <c r="F93" s="3"/>
       <c r="G93" s="10"/>
       <c r="H93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>21</v>
@@ -6117,41 +6132,41 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -6163,10 +6178,10 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
@@ -6175,7 +6190,7 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>21</v>
@@ -6184,16 +6199,16 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -6207,35 +6222,35 @@
       <c r="F99" s="3"/>
       <c r="G99" s="10"/>
       <c r="H99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -6247,10 +6262,10 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -6259,19 +6274,19 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -6280,69 +6295,69 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -6351,50 +6366,50 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H106" t="s" s="18">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I106" t="s" s="18">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H107" t="s" s="18">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I107" t="s" s="18">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -6406,201 +6421,201 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H108" t="s" s="18">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I108" t="s" s="18">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H109" t="s" s="18">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I109" t="s" s="18">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H110" t="s" s="18">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I110" t="s" s="18">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H111" t="s" s="18">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I111" t="s" s="18">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H112" t="s" s="18">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I112" t="s" s="18">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H113" t="s" s="18">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I113" t="s" s="18">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H114" t="s" s="18">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I114" t="s" s="18">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H115" t="s" s="18">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I115" t="s" s="18">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -6612,10 +6627,10 @@
         <v>53</v>
       </c>
       <c r="H116" t="s" s="18">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I116" t="s" s="18">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -6627,16 +6642,16 @@
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H117" t="s" s="18">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I117" t="s" s="18">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -6648,51 +6663,51 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H118" t="s" s="18">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I118" t="s" s="18">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H119" t="s" s="18">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I119" t="s" s="18">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -6700,10 +6715,10 @@
       <c r="F120" s="3"/>
       <c r="G120" s="10"/>
       <c r="H120" t="s" s="18">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I120" t="s" s="18">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -6715,16 +6730,16 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H121" t="s" s="18">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I121" t="s" s="18">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -6736,16 +6751,16 @@
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H122" t="s" s="18">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I122" t="s" s="18">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -6757,66 +6772,66 @@
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H123" t="s" s="18">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I123" t="s" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H124" t="s" s="18">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I124" t="s" s="18">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H125" t="s" s="18">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I125" t="s" s="18">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -6828,16 +6843,16 @@
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H126" t="s" s="18">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I126" t="s" s="18">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
@@ -6849,16 +6864,16 @@
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H127" t="s" s="18">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I127" t="s" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -6870,66 +6885,66 @@
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H128" t="s" s="18">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I128" t="s" s="18">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H129" t="s" s="18">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I129" t="s" s="18">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H130" t="s" s="18">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I130" t="s" s="18">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -6941,16 +6956,16 @@
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H131" t="s" s="18">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I131" t="s" s="18">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -6962,16 +6977,16 @@
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H132" t="s" s="18">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I132" t="s" s="18">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -6983,16 +6998,16 @@
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H133" t="s" s="18">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I133" t="s" s="18">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -7004,41 +7019,41 @@
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H134" t="s" s="18">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I134" t="s" s="18">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H135" t="s" s="18">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I135" t="s" s="18">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -7050,16 +7065,16 @@
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H136" t="s" s="18">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I136" t="s" s="18">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -7071,66 +7086,66 @@
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H137" t="s" s="18">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I137" t="s" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H138" t="s" s="18">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I138" t="s" s="18">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H139" t="s" s="18">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I139" t="s" s="18">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -7144,10 +7159,10 @@
       <c r="F140" s="3"/>
       <c r="G140" s="10"/>
       <c r="H140" t="s" s="18">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I140" t="s" s="18">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -7159,66 +7174,66 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H141" t="s" s="18">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I141" t="s" s="18">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H142" t="s" s="18">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I142" t="s" s="18">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H143" t="s" s="18">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I143" t="s" s="18">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -7230,16 +7245,16 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H144" t="s" s="18">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I144" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -7251,116 +7266,116 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H145" t="s" s="18">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I145" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H146" t="s" s="18">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I146" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H147" t="s" s="18">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I147" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H148" t="s" s="18">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I148" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H149" t="s" s="18">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I149" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -7372,91 +7387,91 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H150" t="s" s="18">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I150" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H151" t="s" s="18">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I151" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H152" t="s" s="18">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I152" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H153" t="s" s="18">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I153" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -7468,226 +7483,226 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H154" t="s" s="18">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I154" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H155" t="s" s="18">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I155" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H156" t="s" s="18">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I156" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
     </row>
     <row r="157" ht="17" customHeight="1">
       <c r="A157" t="s" s="22">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B157" t="s" s="22">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H157" t="s" s="18">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I157" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H158" t="s" s="18">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I158" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H159" t="s" s="18">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I159" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H160" t="s" s="18">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I160" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J160" s="10"/>
       <c r="K160" s="10"/>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H161" t="s" s="18">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I161" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J161" s="10"/>
       <c r="K161" s="10"/>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H162" t="s" s="18">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I162" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J162" s="10"/>
       <c r="K162" s="10"/>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -7695,45 +7710,45 @@
       <c r="F163" s="3"/>
       <c r="G163" s="10"/>
       <c r="H163" t="s" s="18">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I163" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J163" s="10"/>
       <c r="K163" s="10"/>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" t="s" s="18">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G164" t="s" s="18">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H164" t="s" s="18">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I164" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J164" s="10"/>
       <c r="K164" s="10"/>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -7741,60 +7756,60 @@
       <c r="F165" s="3"/>
       <c r="G165" s="10"/>
       <c r="H165" t="s" s="18">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I165" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J165" s="10"/>
       <c r="K165" s="10"/>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H166" t="s" s="18">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I166" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J166" s="10"/>
       <c r="K166" s="10"/>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H167" t="s" s="18">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I167" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J167" s="10"/>
       <c r="K167" s="10"/>
@@ -7806,16 +7821,16 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H168" t="s" s="18">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I168" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J168" s="10"/>
       <c r="K168" s="10"/>
@@ -7827,16 +7842,16 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H169" t="s" s="18">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I169" t="s" s="18">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -7848,10 +7863,10 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
@@ -7865,10 +7880,10 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
@@ -7882,10 +7897,10 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H172" s="10"/>
       <c r="I172" s="10"/>
@@ -7899,10 +7914,10 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
@@ -7916,10 +7931,10 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
@@ -7933,10 +7948,10 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
@@ -7950,10 +7965,10 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="G176" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -7967,10 +7982,10 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H177" s="10"/>
       <c r="I177" s="10"/>
@@ -7984,10 +7999,10 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="G178" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
@@ -8001,10 +8016,10 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
@@ -8018,10 +8033,10 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
@@ -8035,10 +8050,10 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
@@ -8052,10 +8067,10 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
@@ -8069,10 +8084,10 @@
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
@@ -8086,10 +8101,10 @@
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H184" s="10"/>
       <c r="I184" s="10"/>
@@ -8103,10 +8118,10 @@
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="G185" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
@@ -8120,10 +8135,10 @@
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
@@ -8137,10 +8152,10 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
@@ -8154,10 +8169,10 @@
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
@@ -8171,10 +8186,10 @@
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
@@ -8188,10 +8203,10 @@
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H190" s="10"/>
       <c r="I190" s="10"/>
@@ -8205,10 +8220,10 @@
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="G191" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
@@ -8222,10 +8237,10 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H192" s="10"/>
       <c r="I192" s="10"/>
@@ -8239,10 +8254,10 @@
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H193" s="10"/>
       <c r="I193" s="10"/>
@@ -8269,10 +8284,10 @@
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
@@ -8286,10 +8301,10 @@
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
@@ -8303,10 +8318,10 @@
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
@@ -8320,10 +8335,10 @@
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H198" s="10"/>
       <c r="I198" s="10"/>
@@ -8337,10 +8352,10 @@
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
@@ -8354,10 +8369,10 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H200" s="10"/>
       <c r="I200" s="10"/>
@@ -8371,10 +8386,10 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H201" s="10"/>
       <c r="I201" s="10"/>
@@ -8388,10 +8403,10 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H202" s="10"/>
       <c r="I202" s="10"/>
@@ -8405,10 +8420,10 @@
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
@@ -8422,10 +8437,10 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H204" s="10"/>
       <c r="I204" s="10"/>
@@ -8439,10 +8454,10 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H205" s="10"/>
       <c r="I205" s="10"/>
@@ -8456,10 +8471,10 @@
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
@@ -8473,10 +8488,10 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
@@ -8490,10 +8505,10 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H208" s="10"/>
       <c r="I208" s="10"/>
@@ -8507,10 +8522,10 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
@@ -8524,10 +8539,10 @@
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G210" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
@@ -8541,10 +8556,10 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H211" s="10"/>
       <c r="I211" s="10"/>
@@ -8558,10 +8573,10 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
@@ -8575,10 +8590,10 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H213" s="10"/>
       <c r="I213" s="10"/>
@@ -8592,10 +8607,10 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
@@ -8609,10 +8624,10 @@
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H215" s="10"/>
       <c r="I215" s="10"/>
@@ -8626,10 +8641,10 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H216" s="10"/>
       <c r="I216" s="10"/>
@@ -8643,10 +8658,10 @@
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
@@ -8660,10 +8675,10 @@
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
@@ -8677,10 +8692,10 @@
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
@@ -8694,10 +8709,10 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
@@ -8711,10 +8726,10 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H221" s="10"/>
       <c r="I221" s="10"/>
@@ -8728,10 +8743,10 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H222" s="10"/>
       <c r="I222" s="10"/>
@@ -8745,10 +8760,10 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
@@ -8762,10 +8777,10 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
@@ -8779,10 +8794,10 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H225" s="10"/>
       <c r="I225" s="10"/>
@@ -8796,10 +8811,10 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
@@ -8813,10 +8828,10 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H227" s="10"/>
       <c r="I227" s="10"/>
@@ -8830,10 +8845,10 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H228" s="10"/>
       <c r="I228" s="10"/>
@@ -8847,7 +8862,7 @@
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>53</v>
@@ -8864,7 +8879,7 @@
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>53</v>
@@ -8881,10 +8896,10 @@
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H231" s="10"/>
       <c r="I231" s="10"/>
@@ -8898,7 +8913,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>53</v>
@@ -8915,7 +8930,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>53</v>
@@ -8932,7 +8947,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>53</v>
@@ -8949,7 +8964,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>53</v>
@@ -8966,10 +8981,10 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G236" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H236" s="10"/>
       <c r="I236" s="10"/>
@@ -8983,10 +8998,10 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H237" s="10"/>
       <c r="I237" s="10"/>
@@ -9000,10 +9015,10 @@
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
@@ -9017,10 +9032,10 @@
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G239" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
@@ -9034,10 +9049,10 @@
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
@@ -9064,10 +9079,10 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
@@ -9081,10 +9096,10 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
@@ -9098,10 +9113,10 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
@@ -9115,10 +9130,10 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
@@ -9132,10 +9147,10 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G246" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
@@ -9149,10 +9164,10 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
@@ -9166,10 +9181,10 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
@@ -9183,10 +9198,10 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
@@ -9200,10 +9215,10 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G250" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
@@ -9230,10 +9245,10 @@
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
@@ -9247,10 +9262,10 @@
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G253" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
@@ -9264,10 +9279,10 @@
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G254" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H254" s="10"/>
       <c r="I254" s="10"/>
@@ -9281,10 +9296,10 @@
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G255" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H255" s="10"/>
       <c r="I255" s="10"/>
@@ -9298,10 +9313,10 @@
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H256" s="10"/>
       <c r="I256" s="10"/>
@@ -9315,10 +9330,10 @@
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G257" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
@@ -9332,10 +9347,10 @@
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G258" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H258" s="10"/>
       <c r="I258" s="10"/>
@@ -9349,10 +9364,10 @@
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G259" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
@@ -9366,10 +9381,10 @@
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
@@ -9383,10 +9398,10 @@
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G261" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
@@ -9412,8 +9427,12 @@
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
+      <c r="F263" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="G263" t="s" s="2">
+        <v>813</v>
+      </c>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
@@ -9425,8 +9444,12 @@
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
+      <c r="F264" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="G264" t="s" s="2">
+        <v>815</v>
+      </c>
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="817">
   <si>
     <t>institutionCode</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>http://eol.org/schema/terms/paralectohapantotype</t>
+  </si>
+  <si>
+    <t>HOLOTYPE BY MONOTYPY</t>
   </si>
   <si>
     <t>ERGATOTYPE</t>
@@ -9414,8 +9417,12 @@
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
+      <c r="F262" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="G262" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
@@ -9428,10 +9435,10 @@
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G263" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
@@ -9445,10 +9452,10 @@
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G264" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -271,7 +271,15 @@
     <t>FLOWERING</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0007016</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/PO_0007616</t>
+    </r>
   </si>
   <si>
     <t>Paleobiology</t>
@@ -2471,7 +2479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2485,6 +2493,12 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2509,13 +2523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -2619,7 +2633,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2644,10 +2658,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2680,10 +2691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2709,6 +2717,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffff6600"/>
       <rgbColor rgb="ffcdddac"/>
     </indexedColors>
@@ -3806,20 +3815,20 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1562" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.57812" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.2891" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.2891" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5781" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.7344" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.8672" style="1" customWidth="1"/>
-    <col min="11" max="11" width="52" style="1" customWidth="1"/>
-    <col min="12" max="256" width="10.7344" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.35156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="60.6719" style="1" customWidth="1"/>
+    <col min="12" max="256" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -4021,11 +4030,11 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" t="s" s="7">
         <v>58</v>
       </c>
@@ -4038,8 +4047,8 @@
       <c r="I7" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -4082,10 +4091,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" t="s" s="11">
+      <c r="D9" t="s" s="10">
         <v>73</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="E9" t="s" s="10">
         <v>64</v>
       </c>
       <c r="F9" t="s" s="2">
@@ -4166,8 +4175,8 @@
       <c r="I11" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="2">
@@ -4177,8 +4186,8 @@
         <v>97</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" t="s" s="2">
         <v>98</v>
       </c>
@@ -4191,8 +4200,8 @@
       <c r="I12" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
@@ -4220,8 +4229,8 @@
       <c r="I13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="2">
@@ -4249,8 +4258,8 @@
       <c r="I14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="2">
@@ -4278,8 +4287,8 @@
       <c r="I15" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="2">
@@ -4289,8 +4298,8 @@
         <v>11</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" t="s" s="2">
         <v>121</v>
       </c>
@@ -4303,8 +4312,8 @@
       <c r="I16" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="2">
@@ -4332,12 +4341,12 @@
       <c r="I17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4347,10 +4356,10 @@
       <c r="G18" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="2">
@@ -4378,15 +4387,15 @@
       <c r="I19" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="3"/>
       <c r="F20" t="s" s="2">
         <v>140</v>
       </c>
@@ -4399,42 +4408,42 @@
       <c r="I20" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="3"/>
       <c r="F21" t="s" s="2">
         <v>142</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="3"/>
       <c r="F22" t="s" s="2">
         <v>143</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="2">
@@ -4462,8 +4471,8 @@
       <c r="I23" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="2">
@@ -4491,8 +4500,8 @@
       <c r="I24" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="2">
@@ -4520,8 +4529,8 @@
       <c r="I25" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="2">
@@ -4534,13 +4543,13 @@
       <c r="D26" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="E26" t="s" s="14">
+      <c r="E26" t="s" s="13">
         <v>161</v>
       </c>
-      <c r="F26" t="s" s="15">
+      <c r="F26" t="s" s="14">
         <v>169</v>
       </c>
-      <c r="G26" t="s" s="15">
+      <c r="G26" t="s" s="14">
         <v>170</v>
       </c>
       <c r="H26" t="s" s="7">
@@ -4549,8 +4558,8 @@
       <c r="I26" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="2">
@@ -4562,10 +4571,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" t="s" s="16">
+      <c r="F27" t="s" s="15">
         <v>175</v>
       </c>
-      <c r="G27" t="s" s="16">
+      <c r="G27" t="s" s="15">
         <v>176</v>
       </c>
       <c r="H27" t="s" s="2">
@@ -4574,25 +4583,25 @@
       <c r="I27" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="9"/>
       <c r="H28" t="s" s="2">
         <v>179</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="2">
@@ -4620,8 +4629,8 @@
       <c r="I29" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="2">
@@ -4631,10 +4640,10 @@
         <v>187</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" t="s" s="16">
+      <c r="D30" t="s" s="15">
         <v>188</v>
       </c>
-      <c r="E30" t="s" s="16">
+      <c r="E30" t="s" s="15">
         <v>23</v>
       </c>
       <c r="F30" t="s" s="2">
@@ -4649,8 +4658,8 @@
       <c r="I30" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="2">
@@ -4678,8 +4687,8 @@
       <c r="I31" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="2">
@@ -4707,8 +4716,8 @@
       <c r="I32" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="2">
@@ -4732,8 +4741,8 @@
       <c r="I33" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="2">
@@ -4743,10 +4752,10 @@
         <v>213</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" t="s" s="18">
+      <c r="D34" t="s" s="17">
         <v>214</v>
       </c>
-      <c r="E34" t="s" s="18">
+      <c r="E34" t="s" s="17">
         <v>215</v>
       </c>
       <c r="F34" t="s" s="2">
@@ -4761,8 +4770,8 @@
       <c r="I34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="2">
@@ -4772,10 +4781,10 @@
         <v>220</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" t="s" s="18">
+      <c r="D35" t="s" s="17">
         <v>221</v>
       </c>
-      <c r="E35" t="s" s="18">
+      <c r="E35" t="s" s="17">
         <v>215</v>
       </c>
       <c r="F35" t="s" s="2">
@@ -4784,10 +4793,10 @@
       <c r="G35" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="2">
@@ -4797,18 +4806,18 @@
         <v>225</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" t="s" s="18">
+      <c r="D36" t="s" s="17">
         <v>226</v>
       </c>
-      <c r="E36" t="s" s="18">
+      <c r="E36" t="s" s="17">
         <v>215</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="2">
@@ -4832,8 +4841,8 @@
       <c r="I37" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="2">
@@ -4846,15 +4855,15 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="9"/>
       <c r="H38" t="s" s="2">
         <v>235</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="2">
@@ -4878,8 +4887,8 @@
       <c r="I39" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="2">
@@ -4903,8 +4912,8 @@
       <c r="I40" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="s" s="2">
@@ -4928,8 +4937,8 @@
       <c r="I41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="s" s="2">
@@ -4953,8 +4962,8 @@
       <c r="I42" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="s" s="2">
@@ -4978,17 +4987,17 @@
       <c r="I43" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="14">
+      <c r="A44" t="s" s="13">
         <v>263</v>
       </c>
-      <c r="B44" t="s" s="15">
+      <c r="B44" t="s" s="14">
         <v>264</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" t="s" s="2">
@@ -5003,44 +5012,44 @@
       <c r="I44" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="9"/>
       <c r="H45" t="s" s="2">
         <v>266</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="B47" t="s" s="16">
+      <c r="B47" t="s" s="15">
         <v>268</v>
       </c>
       <c r="C47" s="3"/>
@@ -5058,8 +5067,8 @@
       <c r="I47" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="s" s="2">
@@ -5083,21 +5092,21 @@
       <c r="I48" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="2">
@@ -5121,8 +5130,8 @@
       <c r="I50" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="2">
@@ -5135,15 +5144,15 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="9"/>
       <c r="H51" t="s" s="2">
         <v>283</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="2">
@@ -5167,8 +5176,8 @@
       <c r="I52" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="s" s="2">
@@ -5192,8 +5201,8 @@
       <c r="I53" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="2">
@@ -5217,8 +5226,8 @@
       <c r="I54" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="s" s="2">
@@ -5242,8 +5251,8 @@
       <c r="I55" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="s" s="2">
@@ -5267,8 +5276,8 @@
       <c r="I56" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="s" s="2">
@@ -5292,8 +5301,8 @@
       <c r="I57" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="s" s="2">
@@ -5317,8 +5326,8 @@
       <c r="I58" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="s" s="2">
@@ -5342,8 +5351,8 @@
       <c r="I59" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="s" s="2">
@@ -5367,8 +5376,8 @@
       <c r="I60" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="s" s="2">
@@ -5392,8 +5401,8 @@
       <c r="I61" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="s" s="2">
@@ -5417,8 +5426,8 @@
       <c r="I62" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="s" s="2">
@@ -5442,8 +5451,8 @@
       <c r="I63" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="s" s="2">
@@ -5467,8 +5476,8 @@
       <c r="I64" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="s" s="2">
@@ -5481,18 +5490,18 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="10"/>
+      <c r="G65" s="9"/>
       <c r="H65" t="s" s="2">
         <v>339</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="8"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5503,13 +5512,13 @@
       <c r="G66" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="8"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5520,10 +5529,10 @@
       <c r="G67" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="s" s="2">
@@ -5547,21 +5556,21 @@
       <c r="I68" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="8"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="s" s="2">
@@ -5585,8 +5594,8 @@
       <c r="I70" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="s" s="2">
@@ -5610,8 +5619,8 @@
       <c r="I71" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="s" s="2">
@@ -5635,8 +5644,8 @@
       <c r="I72" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="s" s="2">
@@ -5660,8 +5669,8 @@
       <c r="I73" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="s" s="2">
@@ -5685,17 +5694,17 @@
       <c r="I74" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="14">
+      <c r="A75" t="s" s="13">
         <v>368</v>
       </c>
-      <c r="B75" t="s" s="15">
+      <c r="B75" t="s" s="14">
         <v>264</v>
       </c>
-      <c r="C75" s="19"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" t="s" s="2">
@@ -5710,29 +5719,29 @@
       <c r="I75" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="B76" t="s" s="16">
+      <c r="B76" t="s" s="15">
         <v>174</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="9"/>
       <c r="H76" t="s" s="2">
         <v>372</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="s" s="2">
@@ -5745,15 +5754,15 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="10"/>
+      <c r="G77" s="9"/>
       <c r="H77" t="s" s="2">
         <v>375</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="s" s="2">
@@ -5777,8 +5786,8 @@
       <c r="I78" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="s" s="2">
@@ -5802,42 +5811,42 @@
       <c r="I79" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="8"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="10"/>
+      <c r="G80" s="9"/>
       <c r="H80" t="s" s="2">
         <v>382</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="8"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="9"/>
       <c r="H81" t="s" s="2">
         <v>383</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="s" s="2">
@@ -5861,8 +5870,8 @@
       <c r="I82" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="s" s="2">
@@ -5886,8 +5895,8 @@
       <c r="I83" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="s" s="2">
@@ -5911,8 +5920,8 @@
       <c r="I84" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="s" s="2">
@@ -5930,10 +5939,10 @@
       <c r="G85" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="s" s="2">
@@ -5957,25 +5966,25 @@
       <c r="I86" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="8"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="10"/>
+      <c r="G87" s="9"/>
       <c r="H87" t="s" s="2">
         <v>406</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="s" s="2">
@@ -5999,8 +6008,8 @@
       <c r="I88" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="s" s="2">
@@ -6024,21 +6033,21 @@
       <c r="I89" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="8"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="s" s="2">
@@ -6062,42 +6071,42 @@
       <c r="I91" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="8"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="10"/>
+      <c r="G92" s="9"/>
       <c r="H92" t="s" s="2">
         <v>425</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="8"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="10"/>
+      <c r="G93" s="9"/>
       <c r="H93" t="s" s="2">
         <v>426</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="s" s="2">
@@ -6121,8 +6130,8 @@
       <c r="I94" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="s" s="2">
@@ -6146,8 +6155,8 @@
       <c r="I95" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="s" s="2">
@@ -6171,11 +6180,11 @@
       <c r="I96" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="8"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -6186,10 +6195,10 @@
       <c r="G97" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="s" s="2">
@@ -6213,25 +6222,25 @@
       <c r="I98" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="10"/>
+      <c r="G99" s="9"/>
       <c r="H99" t="s" s="2">
         <v>448</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="s" s="2">
@@ -6255,12 +6264,12 @@
       <c r="I100" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6270,10 +6279,10 @@
       <c r="G101" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="s" s="2">
@@ -6291,10 +6300,10 @@
       <c r="G102" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="s" s="2">
@@ -6318,8 +6327,8 @@
       <c r="I103" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="s" s="2">
@@ -6343,8 +6352,8 @@
       <c r="I104" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="s" s="2">
@@ -6362,10 +6371,10 @@
       <c r="G105" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="s" s="2">
@@ -6383,14 +6392,14 @@
       <c r="G106" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="H106" t="s" s="18">
+      <c r="H106" t="s" s="17">
         <v>475</v>
       </c>
-      <c r="I106" t="s" s="18">
+      <c r="I106" t="s" s="17">
         <v>476</v>
       </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="s" s="2">
@@ -6408,17 +6417,17 @@
       <c r="G107" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H107" t="s" s="18">
+      <c r="H107" t="s" s="17">
         <v>481</v>
       </c>
-      <c r="I107" t="s" s="18">
+      <c r="I107" t="s" s="17">
         <v>482</v>
       </c>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="8"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -6429,14 +6438,14 @@
       <c r="G108" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H108" t="s" s="18">
+      <c r="H108" t="s" s="17">
         <v>484</v>
       </c>
-      <c r="I108" t="s" s="18">
+      <c r="I108" t="s" s="17">
         <v>485</v>
       </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="s" s="2">
@@ -6454,14 +6463,14 @@
       <c r="G109" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="H109" t="s" s="18">
+      <c r="H109" t="s" s="17">
         <v>490</v>
       </c>
-      <c r="I109" t="s" s="18">
+      <c r="I109" t="s" s="17">
         <v>491</v>
       </c>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="s" s="2">
@@ -6479,14 +6488,14 @@
       <c r="G110" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H110" t="s" s="18">
+      <c r="H110" t="s" s="17">
         <v>496</v>
       </c>
-      <c r="I110" t="s" s="18">
+      <c r="I110" t="s" s="17">
         <v>497</v>
       </c>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="s" s="2">
@@ -6504,14 +6513,14 @@
       <c r="G111" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H111" t="s" s="18">
+      <c r="H111" t="s" s="17">
         <v>501</v>
       </c>
-      <c r="I111" t="s" s="18">
+      <c r="I111" t="s" s="17">
         <v>502</v>
       </c>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="s" s="2">
@@ -6529,14 +6538,14 @@
       <c r="G112" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="H112" t="s" s="18">
+      <c r="H112" t="s" s="17">
         <v>507</v>
       </c>
-      <c r="I112" t="s" s="18">
+      <c r="I112" t="s" s="17">
         <v>508</v>
       </c>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="s" s="2">
@@ -6554,14 +6563,14 @@
       <c r="G113" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="H113" t="s" s="18">
+      <c r="H113" t="s" s="17">
         <v>513</v>
       </c>
-      <c r="I113" t="s" s="18">
+      <c r="I113" t="s" s="17">
         <v>508</v>
       </c>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="s" s="2">
@@ -6579,14 +6588,14 @@
       <c r="G114" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="H114" t="s" s="18">
+      <c r="H114" t="s" s="17">
         <v>518</v>
       </c>
-      <c r="I114" t="s" s="18">
+      <c r="I114" t="s" s="17">
         <v>519</v>
       </c>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="s" s="2">
@@ -6604,14 +6613,14 @@
       <c r="G115" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="H115" t="s" s="18">
+      <c r="H115" t="s" s="17">
         <v>524</v>
       </c>
-      <c r="I115" t="s" s="18">
+      <c r="I115" t="s" s="17">
         <v>525</v>
       </c>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="s" s="2">
@@ -6629,17 +6638,17 @@
       <c r="G116" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H116" t="s" s="18">
+      <c r="H116" t="s" s="17">
         <v>528</v>
       </c>
-      <c r="I116" t="s" s="18">
+      <c r="I116" t="s" s="17">
         <v>508</v>
       </c>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="8"/>
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -6650,17 +6659,17 @@
       <c r="G117" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H117" t="s" s="18">
+      <c r="H117" t="s" s="17">
         <v>530</v>
       </c>
-      <c r="I117" t="s" s="18">
+      <c r="I117" t="s" s="17">
         <v>502</v>
       </c>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="8"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -6671,14 +6680,14 @@
       <c r="G118" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H118" t="s" s="18">
+      <c r="H118" t="s" s="17">
         <v>532</v>
       </c>
-      <c r="I118" t="s" s="18">
+      <c r="I118" t="s" s="17">
         <v>497</v>
       </c>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="s" s="2">
@@ -6696,14 +6705,14 @@
       <c r="G119" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H119" t="s" s="18">
+      <c r="H119" t="s" s="17">
         <v>536</v>
       </c>
-      <c r="I119" t="s" s="18">
+      <c r="I119" t="s" s="17">
         <v>537</v>
       </c>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="s" s="2">
@@ -6716,18 +6725,18 @@
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="10"/>
-      <c r="H120" t="s" s="18">
+      <c r="G120" s="9"/>
+      <c r="H120" t="s" s="17">
         <v>540</v>
       </c>
-      <c r="I120" t="s" s="18">
+      <c r="I120" t="s" s="17">
         <v>541</v>
       </c>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="8"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -6738,17 +6747,17 @@
       <c r="G121" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H121" t="s" s="18">
+      <c r="H121" t="s" s="17">
         <v>543</v>
       </c>
-      <c r="I121" t="s" s="18">
+      <c r="I121" t="s" s="17">
         <v>544</v>
       </c>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="8"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -6759,17 +6768,17 @@
       <c r="G122" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H122" t="s" s="18">
+      <c r="H122" t="s" s="17">
         <v>546</v>
       </c>
-      <c r="I122" t="s" s="18">
+      <c r="I122" t="s" s="17">
         <v>519</v>
       </c>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="8"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -6780,14 +6789,14 @@
       <c r="G123" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H123" t="s" s="18">
+      <c r="H123" t="s" s="17">
         <v>548</v>
       </c>
-      <c r="I123" t="s" s="18">
+      <c r="I123" t="s" s="17">
         <v>124</v>
       </c>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="s" s="2">
@@ -6805,14 +6814,14 @@
       <c r="G124" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="H124" t="s" s="18">
+      <c r="H124" t="s" s="17">
         <v>553</v>
       </c>
-      <c r="I124" t="s" s="18">
+      <c r="I124" t="s" s="17">
         <v>554</v>
       </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="s" s="2">
@@ -6830,17 +6839,17 @@
       <c r="G125" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="H125" t="s" s="18">
+      <c r="H125" t="s" s="17">
         <v>557</v>
       </c>
-      <c r="I125" t="s" s="18">
+      <c r="I125" t="s" s="17">
         <v>558</v>
       </c>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="10"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -6851,17 +6860,17 @@
       <c r="G126" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="H126" t="s" s="18">
+      <c r="H126" t="s" s="17">
         <v>560</v>
       </c>
-      <c r="I126" t="s" s="18">
+      <c r="I126" t="s" s="17">
         <v>561</v>
       </c>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="10"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -6872,17 +6881,17 @@
       <c r="G127" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H127" t="s" s="18">
+      <c r="H127" t="s" s="17">
         <v>563</v>
       </c>
-      <c r="I127" t="s" s="18">
+      <c r="I127" t="s" s="17">
         <v>124</v>
       </c>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="10"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -6893,14 +6902,14 @@
       <c r="G128" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H128" t="s" s="18">
+      <c r="H128" t="s" s="17">
         <v>565</v>
       </c>
-      <c r="I128" t="s" s="18">
+      <c r="I128" t="s" s="17">
         <v>566</v>
       </c>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="s" s="2">
@@ -6918,14 +6927,14 @@
       <c r="G129" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H129" t="s" s="18">
+      <c r="H129" t="s" s="17">
         <v>570</v>
       </c>
-      <c r="I129" t="s" s="18">
+      <c r="I129" t="s" s="17">
         <v>571</v>
       </c>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="s" s="2">
@@ -6943,18 +6952,18 @@
       <c r="G130" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H130" t="s" s="18">
+      <c r="H130" t="s" s="17">
         <v>575</v>
       </c>
-      <c r="I130" t="s" s="18">
+      <c r="I130" t="s" s="17">
         <v>576</v>
       </c>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6964,18 +6973,18 @@
       <c r="G131" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H131" t="s" s="18">
+      <c r="H131" t="s" s="17">
         <v>578</v>
       </c>
-      <c r="I131" t="s" s="18">
+      <c r="I131" t="s" s="17">
         <v>579</v>
       </c>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6985,18 +6994,18 @@
       <c r="G132" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H132" t="s" s="18">
+      <c r="H132" t="s" s="17">
         <v>581</v>
       </c>
-      <c r="I132" t="s" s="18">
+      <c r="I132" t="s" s="17">
         <v>582</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7006,18 +7015,18 @@
       <c r="G133" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H133" t="s" s="18">
+      <c r="H133" t="s" s="17">
         <v>584</v>
       </c>
-      <c r="I133" t="s" s="18">
+      <c r="I133" t="s" s="17">
         <v>554</v>
       </c>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7027,14 +7036,14 @@
       <c r="G134" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H134" t="s" s="18">
+      <c r="H134" t="s" s="17">
         <v>586</v>
       </c>
-      <c r="I134" t="s" s="18">
+      <c r="I134" t="s" s="17">
         <v>587</v>
       </c>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="s" s="2">
@@ -7052,17 +7061,17 @@
       <c r="G135" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H135" t="s" s="18">
+      <c r="H135" t="s" s="17">
         <v>591</v>
       </c>
-      <c r="I135" t="s" s="18">
+      <c r="I135" t="s" s="17">
         <v>592</v>
       </c>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="10"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -7073,17 +7082,17 @@
       <c r="G136" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H136" t="s" s="18">
+      <c r="H136" t="s" s="17">
         <v>594</v>
       </c>
-      <c r="I136" t="s" s="18">
+      <c r="I136" t="s" s="17">
         <v>558</v>
       </c>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="10"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -7094,14 +7103,14 @@
       <c r="G137" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H137" t="s" s="18">
+      <c r="H137" t="s" s="17">
         <v>596</v>
       </c>
-      <c r="I137" t="s" s="18">
+      <c r="I137" t="s" s="17">
         <v>124</v>
       </c>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="s" s="2">
@@ -7119,14 +7128,14 @@
       <c r="G138" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H138" t="s" s="18">
+      <c r="H138" t="s" s="17">
         <v>600</v>
       </c>
-      <c r="I138" t="s" s="18">
+      <c r="I138" t="s" s="17">
         <v>601</v>
       </c>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="s" s="2">
@@ -7144,34 +7153,34 @@
       <c r="G139" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H139" t="s" s="18">
+      <c r="H139" t="s" s="17">
         <v>532</v>
       </c>
-      <c r="I139" t="s" s="18">
+      <c r="I139" t="s" s="17">
         <v>558</v>
       </c>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="10"/>
-      <c r="H140" t="s" s="18">
+      <c r="G140" s="9"/>
+      <c r="H140" t="s" s="17">
         <v>604</v>
       </c>
-      <c r="I140" t="s" s="18">
+      <c r="I140" t="s" s="17">
         <v>601</v>
       </c>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="10"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -7182,14 +7191,14 @@
       <c r="G141" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="H141" t="s" s="18">
+      <c r="H141" t="s" s="17">
         <v>606</v>
       </c>
-      <c r="I141" t="s" s="18">
+      <c r="I141" t="s" s="17">
         <v>607</v>
       </c>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="s" s="2">
@@ -7207,14 +7216,14 @@
       <c r="G142" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="H142" t="s" s="18">
+      <c r="H142" t="s" s="17">
         <v>611</v>
       </c>
-      <c r="I142" t="s" s="18">
+      <c r="I142" t="s" s="17">
         <v>519</v>
       </c>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="s" s="2">
@@ -7232,18 +7241,18 @@
       <c r="G143" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H143" t="s" s="18">
+      <c r="H143" t="s" s="17">
         <v>615</v>
       </c>
-      <c r="I143" t="s" s="18">
+      <c r="I143" t="s" s="17">
         <v>170</v>
       </c>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -7253,18 +7262,18 @@
       <c r="G144" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H144" t="s" s="18">
+      <c r="H144" t="s" s="17">
         <v>617</v>
       </c>
-      <c r="I144" t="s" s="18">
+      <c r="I144" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -7274,14 +7283,14 @@
       <c r="G145" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H145" t="s" s="18">
+      <c r="H145" t="s" s="17">
         <v>619</v>
       </c>
-      <c r="I145" t="s" s="18">
+      <c r="I145" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="s" s="2">
@@ -7299,14 +7308,14 @@
       <c r="G146" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="H146" t="s" s="18">
+      <c r="H146" t="s" s="17">
         <v>623</v>
       </c>
-      <c r="I146" t="s" s="18">
+      <c r="I146" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="s" s="2">
@@ -7324,14 +7333,14 @@
       <c r="G147" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="H147" t="s" s="18">
+      <c r="H147" t="s" s="17">
         <v>626</v>
       </c>
-      <c r="I147" t="s" s="18">
+      <c r="I147" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="s" s="2">
@@ -7349,14 +7358,14 @@
       <c r="G148" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="H148" t="s" s="18">
+      <c r="H148" t="s" s="17">
         <v>630</v>
       </c>
-      <c r="I148" t="s" s="18">
+      <c r="I148" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="s" s="2">
@@ -7374,18 +7383,18 @@
       <c r="G149" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="H149" t="s" s="18">
+      <c r="H149" t="s" s="17">
         <v>633</v>
       </c>
-      <c r="I149" t="s" s="18">
+      <c r="I149" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -7395,14 +7404,14 @@
       <c r="G150" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="H150" t="s" s="18">
+      <c r="H150" t="s" s="17">
         <v>635</v>
       </c>
-      <c r="I150" t="s" s="18">
+      <c r="I150" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="s" s="2">
@@ -7420,14 +7429,14 @@
       <c r="G151" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="H151" t="s" s="18">
+      <c r="H151" t="s" s="17">
         <v>638</v>
       </c>
-      <c r="I151" t="s" s="18">
+      <c r="I151" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="s" s="2">
@@ -7445,14 +7454,14 @@
       <c r="G152" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="H152" t="s" s="18">
+      <c r="H152" t="s" s="17">
         <v>640</v>
       </c>
-      <c r="I152" t="s" s="18">
+      <c r="I152" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="s" s="2">
@@ -7470,17 +7479,17 @@
       <c r="G153" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H153" t="s" s="18">
+      <c r="H153" t="s" s="17">
         <v>643</v>
       </c>
-      <c r="I153" t="s" s="18">
+      <c r="I153" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="10"/>
+      <c r="A154" s="9"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -7491,14 +7500,14 @@
       <c r="G154" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="H154" t="s" s="18">
+      <c r="H154" t="s" s="17">
         <v>645</v>
       </c>
-      <c r="I154" t="s" s="18">
+      <c r="I154" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="s" s="2">
@@ -7516,14 +7525,14 @@
       <c r="G155" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H155" t="s" s="18">
+      <c r="H155" t="s" s="17">
         <v>649</v>
       </c>
-      <c r="I155" t="s" s="18">
+      <c r="I155" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="s" s="2">
@@ -7541,20 +7550,20 @@
       <c r="G156" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H156" t="s" s="18">
+      <c r="H156" t="s" s="17">
         <v>652</v>
       </c>
-      <c r="I156" t="s" s="18">
+      <c r="I156" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
     </row>
     <row r="157" ht="17" customHeight="1">
-      <c r="A157" t="s" s="22">
+      <c r="A157" t="s" s="20">
         <v>653</v>
       </c>
-      <c r="B157" t="s" s="22">
+      <c r="B157" t="s" s="20">
         <v>315</v>
       </c>
       <c r="C157" s="3"/>
@@ -7566,14 +7575,14 @@
       <c r="G157" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="H157" t="s" s="18">
+      <c r="H157" t="s" s="17">
         <v>655</v>
       </c>
-      <c r="I157" t="s" s="18">
+      <c r="I157" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="s" s="2">
@@ -7591,14 +7600,14 @@
       <c r="G158" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H158" t="s" s="18">
+      <c r="H158" t="s" s="17">
         <v>657</v>
       </c>
-      <c r="I158" t="s" s="18">
+      <c r="I158" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="s" s="2">
@@ -7616,14 +7625,14 @@
       <c r="G159" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H159" t="s" s="18">
+      <c r="H159" t="s" s="17">
         <v>661</v>
       </c>
-      <c r="I159" t="s" s="18">
+      <c r="I159" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="s" s="2">
@@ -7641,14 +7650,14 @@
       <c r="G160" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="H160" t="s" s="18">
+      <c r="H160" t="s" s="17">
         <v>666</v>
       </c>
-      <c r="I160" t="s" s="18">
+      <c r="I160" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="s" s="2">
@@ -7666,14 +7675,14 @@
       <c r="G161" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="H161" t="s" s="18">
+      <c r="H161" t="s" s="17">
         <v>671</v>
       </c>
-      <c r="I161" t="s" s="18">
+      <c r="I161" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="s" s="2">
@@ -7691,14 +7700,14 @@
       <c r="G162" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="H162" t="s" s="18">
+      <c r="H162" t="s" s="17">
         <v>676</v>
       </c>
-      <c r="I162" t="s" s="18">
+      <c r="I162" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="s" s="2">
@@ -7711,15 +7720,15 @@
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="10"/>
-      <c r="H163" t="s" s="18">
+      <c r="G163" s="9"/>
+      <c r="H163" t="s" s="17">
         <v>221</v>
       </c>
-      <c r="I163" t="s" s="18">
+      <c r="I163" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="s" s="2">
@@ -7731,20 +7740,20 @@
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" t="s" s="18">
+      <c r="F164" t="s" s="17">
         <v>681</v>
       </c>
-      <c r="G164" t="s" s="18">
+      <c r="G164" t="s" s="17">
         <v>682</v>
       </c>
-      <c r="H164" t="s" s="18">
+      <c r="H164" t="s" s="17">
         <v>683</v>
       </c>
-      <c r="I164" t="s" s="18">
+      <c r="I164" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="s" s="2">
@@ -7757,15 +7766,15 @@
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="10"/>
-      <c r="H165" t="s" s="18">
+      <c r="G165" s="9"/>
+      <c r="H165" t="s" s="17">
         <v>686</v>
       </c>
-      <c r="I165" t="s" s="18">
+      <c r="I165" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="s" s="2">
@@ -7783,14 +7792,14 @@
       <c r="G166" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="H166" t="s" s="18">
+      <c r="H166" t="s" s="17">
         <v>691</v>
       </c>
-      <c r="I166" t="s" s="18">
+      <c r="I166" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="s" s="2">
@@ -7808,17 +7817,17 @@
       <c r="G167" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="H167" t="s" s="18">
+      <c r="H167" t="s" s="17">
         <v>695</v>
       </c>
-      <c r="I167" t="s" s="18">
+      <c r="I167" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
     </row>
     <row r="168" ht="15" customHeight="1">
-      <c r="A168" s="10"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -7829,17 +7838,17 @@
       <c r="G168" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="H168" t="s" s="18">
+      <c r="H168" t="s" s="17">
         <v>698</v>
       </c>
-      <c r="I168" t="s" s="18">
+      <c r="I168" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="A169" s="10"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -7850,17 +7859,17 @@
       <c r="G169" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="H169" t="s" s="18">
+      <c r="H169" t="s" s="17">
         <v>701</v>
       </c>
-      <c r="I169" t="s" s="18">
+      <c r="I169" t="s" s="17">
         <v>215</v>
       </c>
-      <c r="J169" s="10"/>
-      <c r="K169" s="10"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="A170" s="10"/>
+      <c r="A170" s="9"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -7871,13 +7880,13 @@
       <c r="G170" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="A171" s="10"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -7888,13 +7897,13 @@
       <c r="G171" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="H171" s="10"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" s="10"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -7905,13 +7914,13 @@
       <c r="G172" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" s="10"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -7922,13 +7931,13 @@
       <c r="G173" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="10"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -7939,13 +7948,13 @@
       <c r="G174" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="A175" s="10"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -7956,13 +7965,13 @@
       <c r="G175" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="10"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -7973,13 +7982,13 @@
       <c r="G176" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
     </row>
     <row r="177" ht="15" customHeight="1">
-      <c r="A177" s="10"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -7990,13 +7999,13 @@
       <c r="G177" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="A178" s="10"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -8007,13 +8016,13 @@
       <c r="G178" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="A179" s="10"/>
+      <c r="A179" s="9"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -8024,13 +8033,13 @@
       <c r="G179" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="A180" s="10"/>
+      <c r="A180" s="9"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -8041,13 +8050,13 @@
       <c r="G180" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
     </row>
     <row r="181" ht="15" customHeight="1">
-      <c r="A181" s="10"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -8058,13 +8067,13 @@
       <c r="G181" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" s="10"/>
+      <c r="A182" s="9"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -8075,13 +8084,13 @@
       <c r="G182" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="A183" s="10"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -8092,13 +8101,13 @@
       <c r="G183" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="A184" s="10"/>
+      <c r="A184" s="9"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -8109,13 +8118,13 @@
       <c r="G184" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="10"/>
+      <c r="A185" s="9"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -8126,13 +8135,13 @@
       <c r="G185" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-      <c r="K185" s="10"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="A186" s="10"/>
+      <c r="A186" s="9"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -8143,13 +8152,13 @@
       <c r="G186" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-      <c r="K186" s="10"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
     </row>
     <row r="187" ht="15" customHeight="1">
-      <c r="A187" s="10"/>
+      <c r="A187" s="9"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -8160,13 +8169,13 @@
       <c r="G187" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-      <c r="K187" s="10"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
     </row>
     <row r="188" ht="15" customHeight="1">
-      <c r="A188" s="10"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -8177,13 +8186,13 @@
       <c r="G188" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="10"/>
+      <c r="A189" s="9"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -8194,13 +8203,13 @@
       <c r="G189" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-      <c r="K189" s="10"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
     </row>
     <row r="190" ht="15" customHeight="1">
-      <c r="A190" s="10"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -8211,13 +8220,13 @@
       <c r="G190" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
     </row>
     <row r="191" ht="15" customHeight="1">
-      <c r="A191" s="10"/>
+      <c r="A191" s="9"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -8228,13 +8237,13 @@
       <c r="G191" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="10"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
     </row>
     <row r="192" ht="15" customHeight="1">
-      <c r="A192" s="10"/>
+      <c r="A192" s="9"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -8245,13 +8254,13 @@
       <c r="G192" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
     </row>
     <row r="193" ht="15" customHeight="1">
-      <c r="A193" s="10"/>
+      <c r="A193" s="9"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -8262,26 +8271,26 @@
       <c r="G193" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-      <c r="K193" s="10"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="A194" s="10"/>
+      <c r="A194" s="9"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
     </row>
     <row r="195" ht="15" customHeight="1">
-      <c r="A195" s="10"/>
+      <c r="A195" s="9"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -8292,13 +8301,13 @@
       <c r="G195" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
     </row>
     <row r="196" ht="15" customHeight="1">
-      <c r="A196" s="10"/>
+      <c r="A196" s="9"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -8309,13 +8318,13 @@
       <c r="G196" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-      <c r="K196" s="10"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="A197" s="10"/>
+      <c r="A197" s="9"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -8326,13 +8335,13 @@
       <c r="G197" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-      <c r="K197" s="10"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
     </row>
     <row r="198" ht="15" customHeight="1">
-      <c r="A198" s="10"/>
+      <c r="A198" s="9"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -8343,13 +8352,13 @@
       <c r="G198" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="10"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
     </row>
     <row r="199" ht="15" customHeight="1">
-      <c r="A199" s="10"/>
+      <c r="A199" s="9"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -8360,13 +8369,13 @@
       <c r="G199" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-      <c r="K199" s="10"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
     </row>
     <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="10"/>
+      <c r="A200" s="9"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -8377,13 +8386,13 @@
       <c r="G200" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
-      <c r="K200" s="10"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
     </row>
     <row r="201" ht="15" customHeight="1">
-      <c r="A201" s="10"/>
+      <c r="A201" s="9"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -8394,13 +8403,13 @@
       <c r="G201" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
     </row>
     <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="10"/>
+      <c r="A202" s="9"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -8411,13 +8420,13 @@
       <c r="G202" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="10"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
     </row>
     <row r="203" ht="15" customHeight="1">
-      <c r="A203" s="10"/>
+      <c r="A203" s="9"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -8428,13 +8437,13 @@
       <c r="G203" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="10"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
     </row>
     <row r="204" ht="15" customHeight="1">
-      <c r="A204" s="10"/>
+      <c r="A204" s="9"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -8445,13 +8454,13 @@
       <c r="G204" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
     </row>
     <row r="205" ht="15" customHeight="1">
-      <c r="A205" s="10"/>
+      <c r="A205" s="9"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -8462,13 +8471,13 @@
       <c r="G205" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-      <c r="K205" s="10"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="9"/>
+      <c r="K205" s="9"/>
     </row>
     <row r="206" ht="15" customHeight="1">
-      <c r="A206" s="10"/>
+      <c r="A206" s="9"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -8479,13 +8488,13 @@
       <c r="G206" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-      <c r="K206" s="10"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
     </row>
     <row r="207" ht="15" customHeight="1">
-      <c r="A207" s="10"/>
+      <c r="A207" s="9"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -8496,13 +8505,13 @@
       <c r="G207" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10"/>
-      <c r="J207" s="10"/>
-      <c r="K207" s="10"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
     </row>
     <row r="208" ht="15" customHeight="1">
-      <c r="A208" s="10"/>
+      <c r="A208" s="9"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -8513,13 +8522,13 @@
       <c r="G208" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-      <c r="K208" s="10"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
     </row>
     <row r="209" ht="15" customHeight="1">
-      <c r="A209" s="10"/>
+      <c r="A209" s="9"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8530,13 +8539,13 @@
       <c r="G209" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
     </row>
     <row r="210" ht="15" customHeight="1">
-      <c r="A210" s="10"/>
+      <c r="A210" s="9"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -8547,13 +8556,13 @@
       <c r="G210" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
     </row>
     <row r="211" ht="15" customHeight="1">
-      <c r="A211" s="10"/>
+      <c r="A211" s="9"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -8564,13 +8573,13 @@
       <c r="G211" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
     </row>
     <row r="212" ht="15" customHeight="1">
-      <c r="A212" s="10"/>
+      <c r="A212" s="9"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -8581,13 +8590,13 @@
       <c r="G212" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
     </row>
     <row r="213" ht="15" customHeight="1">
-      <c r="A213" s="10"/>
+      <c r="A213" s="9"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -8598,13 +8607,13 @@
       <c r="G213" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="10"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
     </row>
     <row r="214" ht="15" customHeight="1">
-      <c r="A214" s="10"/>
+      <c r="A214" s="9"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -8615,13 +8624,13 @@
       <c r="G214" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-      <c r="K214" s="10"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
     </row>
     <row r="215" ht="15" customHeight="1">
-      <c r="A215" s="10"/>
+      <c r="A215" s="9"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -8632,13 +8641,13 @@
       <c r="G215" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
     </row>
     <row r="216" ht="15" customHeight="1">
-      <c r="A216" s="10"/>
+      <c r="A216" s="9"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -8649,13 +8658,13 @@
       <c r="G216" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="10"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
     </row>
     <row r="217" ht="15" customHeight="1">
-      <c r="A217" s="10"/>
+      <c r="A217" s="9"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -8666,13 +8675,13 @@
       <c r="G217" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
     </row>
     <row r="218" ht="15" customHeight="1">
-      <c r="A218" s="10"/>
+      <c r="A218" s="9"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -8683,13 +8692,13 @@
       <c r="G218" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
-      <c r="K218" s="10"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
     </row>
     <row r="219" ht="15" customHeight="1">
-      <c r="A219" s="10"/>
+      <c r="A219" s="9"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -8700,13 +8709,13 @@
       <c r="G219" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="10"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
     </row>
     <row r="220" ht="15" customHeight="1">
-      <c r="A220" s="10"/>
+      <c r="A220" s="9"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -8717,13 +8726,13 @@
       <c r="G220" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
-      <c r="K220" s="10"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9"/>
     </row>
     <row r="221" ht="15" customHeight="1">
-      <c r="A221" s="10"/>
+      <c r="A221" s="9"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -8734,13 +8743,13 @@
       <c r="G221" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
-      <c r="K221" s="10"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
     </row>
     <row r="222" ht="15" customHeight="1">
-      <c r="A222" s="10"/>
+      <c r="A222" s="9"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -8751,13 +8760,13 @@
       <c r="G222" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="10"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
     </row>
     <row r="223" ht="15" customHeight="1">
-      <c r="A223" s="10"/>
+      <c r="A223" s="9"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -8768,13 +8777,13 @@
       <c r="G223" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="J223" s="10"/>
-      <c r="K223" s="10"/>
+      <c r="H223" s="9"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
     </row>
     <row r="224" ht="15" customHeight="1">
-      <c r="A224" s="10"/>
+      <c r="A224" s="9"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -8785,13 +8794,13 @@
       <c r="G224" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
-      <c r="K224" s="10"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
     </row>
     <row r="225" ht="15" customHeight="1">
-      <c r="A225" s="10"/>
+      <c r="A225" s="9"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -8802,13 +8811,13 @@
       <c r="G225" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
-      <c r="K225" s="10"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="9"/>
     </row>
     <row r="226" ht="15" customHeight="1">
-      <c r="A226" s="10"/>
+      <c r="A226" s="9"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8819,13 +8828,13 @@
       <c r="G226" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
-      <c r="K226" s="10"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
     </row>
     <row r="227" ht="15" customHeight="1">
-      <c r="A227" s="10"/>
+      <c r="A227" s="9"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8836,13 +8845,13 @@
       <c r="G227" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H227" s="10"/>
-      <c r="I227" s="10"/>
-      <c r="J227" s="10"/>
-      <c r="K227" s="10"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
     </row>
     <row r="228" ht="15" customHeight="1">
-      <c r="A228" s="10"/>
+      <c r="A228" s="9"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8853,13 +8862,13 @@
       <c r="G228" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H228" s="10"/>
-      <c r="I228" s="10"/>
-      <c r="J228" s="10"/>
-      <c r="K228" s="10"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
     </row>
     <row r="229" ht="15" customHeight="1">
-      <c r="A229" s="10"/>
+      <c r="A229" s="9"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8870,13 +8879,13 @@
       <c r="G229" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H229" s="10"/>
-      <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="10"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="9"/>
     </row>
     <row r="230" ht="15" customHeight="1">
-      <c r="A230" s="10"/>
+      <c r="A230" s="9"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8887,13 +8896,13 @@
       <c r="G230" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="10"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="9"/>
     </row>
     <row r="231" ht="15" customHeight="1">
-      <c r="A231" s="10"/>
+      <c r="A231" s="9"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8904,13 +8913,13 @@
       <c r="G231" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
-      <c r="J231" s="10"/>
-      <c r="K231" s="10"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="9"/>
     </row>
     <row r="232" ht="15" customHeight="1">
-      <c r="A232" s="10"/>
+      <c r="A232" s="9"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8921,13 +8930,13 @@
       <c r="G232" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
-      <c r="K232" s="10"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="9"/>
     </row>
     <row r="233" ht="15" customHeight="1">
-      <c r="A233" s="10"/>
+      <c r="A233" s="9"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8938,13 +8947,13 @@
       <c r="G233" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H233" s="10"/>
-      <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-      <c r="K233" s="10"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
     </row>
     <row r="234" ht="15" customHeight="1">
-      <c r="A234" s="10"/>
+      <c r="A234" s="9"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8955,13 +8964,13 @@
       <c r="G234" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-      <c r="K234" s="10"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="9"/>
     </row>
     <row r="235" ht="15" customHeight="1">
-      <c r="A235" s="10"/>
+      <c r="A235" s="9"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8972,13 +8981,13 @@
       <c r="G235" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H235" s="10"/>
-      <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-      <c r="K235" s="10"/>
+      <c r="H235" s="9"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="9"/>
     </row>
     <row r="236" ht="15" customHeight="1">
-      <c r="A236" s="10"/>
+      <c r="A236" s="9"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8989,13 +8998,13 @@
       <c r="G236" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="H236" s="10"/>
-      <c r="I236" s="10"/>
-      <c r="J236" s="10"/>
-      <c r="K236" s="10"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
     </row>
     <row r="237" ht="15" customHeight="1">
-      <c r="A237" s="10"/>
+      <c r="A237" s="9"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -9006,13 +9015,13 @@
       <c r="G237" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="10"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
     </row>
     <row r="238" ht="15" customHeight="1">
-      <c r="A238" s="10"/>
+      <c r="A238" s="9"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -9023,13 +9032,13 @@
       <c r="G238" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
-      <c r="K238" s="10"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
     </row>
     <row r="239" ht="15" customHeight="1">
-      <c r="A239" s="10"/>
+      <c r="A239" s="9"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -9040,13 +9049,13 @@
       <c r="G239" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-      <c r="K239" s="10"/>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="9"/>
     </row>
     <row r="240" ht="15" customHeight="1">
-      <c r="A240" s="10"/>
+      <c r="A240" s="9"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -9057,26 +9066,26 @@
       <c r="G240" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-      <c r="K240" s="10"/>
+      <c r="H240" s="9"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
     </row>
     <row r="241" ht="15" customHeight="1">
-      <c r="A241" s="10"/>
+      <c r="A241" s="9"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="9"/>
     </row>
     <row r="242" ht="15" customHeight="1">
-      <c r="A242" s="10"/>
+      <c r="A242" s="9"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -9087,13 +9096,13 @@
       <c r="G242" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="J242" s="10"/>
-      <c r="K242" s="10"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
     </row>
     <row r="243" ht="15" customHeight="1">
-      <c r="A243" s="10"/>
+      <c r="A243" s="9"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -9104,13 +9113,13 @@
       <c r="G243" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-      <c r="K243" s="10"/>
+      <c r="H243" s="9"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
     </row>
     <row r="244" ht="15" customHeight="1">
-      <c r="A244" s="10"/>
+      <c r="A244" s="9"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -9121,13 +9130,13 @@
       <c r="G244" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
+      <c r="H244" s="9"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
     </row>
     <row r="245" ht="15" customHeight="1">
-      <c r="A245" s="10"/>
+      <c r="A245" s="9"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -9138,13 +9147,13 @@
       <c r="G245" t="s" s="2">
         <v>785</v>
       </c>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10"/>
+      <c r="H245" s="9"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="9"/>
     </row>
     <row r="246" ht="15" customHeight="1">
-      <c r="A246" s="10"/>
+      <c r="A246" s="9"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -9155,13 +9164,13 @@
       <c r="G246" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-      <c r="K246" s="10"/>
+      <c r="H246" s="9"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="9"/>
     </row>
     <row r="247" ht="15" customHeight="1">
-      <c r="A247" s="10"/>
+      <c r="A247" s="9"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -9172,13 +9181,13 @@
       <c r="G247" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
+      <c r="H247" s="9"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="9"/>
     </row>
     <row r="248" ht="15" customHeight="1">
-      <c r="A248" s="10"/>
+      <c r="A248" s="9"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -9189,13 +9198,13 @@
       <c r="G248" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
-      <c r="K248" s="10"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
     </row>
     <row r="249" ht="15" customHeight="1">
-      <c r="A249" s="10"/>
+      <c r="A249" s="9"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -9206,13 +9215,13 @@
       <c r="G249" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
-      <c r="K249" s="10"/>
+      <c r="H249" s="9"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="9"/>
     </row>
     <row r="250" ht="15" customHeight="1">
-      <c r="A250" s="10"/>
+      <c r="A250" s="9"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -9223,26 +9232,26 @@
       <c r="G250" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
-      <c r="K250" s="10"/>
+      <c r="H250" s="9"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="9"/>
     </row>
     <row r="251" ht="15" customHeight="1">
-      <c r="A251" s="10"/>
+      <c r="A251" s="9"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="J251" s="10"/>
-      <c r="K251" s="10"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="9"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="9"/>
+      <c r="K251" s="9"/>
     </row>
     <row r="252" ht="15" customHeight="1">
-      <c r="A252" s="10"/>
+      <c r="A252" s="9"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -9253,13 +9262,13 @@
       <c r="G252" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
-      <c r="J252" s="10"/>
-      <c r="K252" s="10"/>
+      <c r="H252" s="9"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="9"/>
     </row>
     <row r="253" ht="15" customHeight="1">
-      <c r="A253" s="10"/>
+      <c r="A253" s="9"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -9270,13 +9279,13 @@
       <c r="G253" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
-      <c r="K253" s="10"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="9"/>
     </row>
     <row r="254" ht="15" customHeight="1">
-      <c r="A254" s="10"/>
+      <c r="A254" s="9"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -9287,13 +9296,13 @@
       <c r="G254" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="H254" s="10"/>
-      <c r="I254" s="10"/>
-      <c r="J254" s="10"/>
-      <c r="K254" s="10"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
     </row>
     <row r="255" ht="15" customHeight="1">
-      <c r="A255" s="10"/>
+      <c r="A255" s="9"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -9304,13 +9313,13 @@
       <c r="G255" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-      <c r="K255" s="10"/>
+      <c r="H255" s="9"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
     </row>
     <row r="256" ht="15" customHeight="1">
-      <c r="A256" s="10"/>
+      <c r="A256" s="9"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -9321,13 +9330,13 @@
       <c r="G256" t="s" s="2">
         <v>802</v>
       </c>
-      <c r="H256" s="10"/>
-      <c r="I256" s="10"/>
-      <c r="J256" s="10"/>
-      <c r="K256" s="10"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="9"/>
+      <c r="K256" s="9"/>
     </row>
     <row r="257" ht="15" customHeight="1">
-      <c r="A257" s="10"/>
+      <c r="A257" s="9"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -9338,13 +9347,13 @@
       <c r="G257" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="H257" s="10"/>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="10"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="9"/>
     </row>
     <row r="258" ht="15" customHeight="1">
-      <c r="A258" s="10"/>
+      <c r="A258" s="9"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -9355,13 +9364,13 @@
       <c r="G258" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-      <c r="J258" s="10"/>
-      <c r="K258" s="10"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
     </row>
     <row r="259" ht="15" customHeight="1">
-      <c r="A259" s="10"/>
+      <c r="A259" s="9"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -9372,13 +9381,13 @@
       <c r="G259" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
     </row>
     <row r="260" ht="15" customHeight="1">
-      <c r="A260" s="10"/>
+      <c r="A260" s="9"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9389,13 +9398,13 @@
       <c r="G260" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
+      <c r="H260" s="9"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="9"/>
+      <c r="K260" s="9"/>
     </row>
     <row r="261" ht="15" customHeight="1">
-      <c r="A261" s="10"/>
+      <c r="A261" s="9"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9406,13 +9415,13 @@
       <c r="G261" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="10"/>
+      <c r="H261" s="9"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
     </row>
     <row r="262" ht="15" customHeight="1">
-      <c r="A262" s="10"/>
+      <c r="A262" s="9"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9423,13 +9432,13 @@
       <c r="G262" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
+      <c r="H262" s="9"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="9"/>
     </row>
     <row r="263" ht="15" customHeight="1">
-      <c r="A263" s="10"/>
+      <c r="A263" s="9"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9440,13 +9449,13 @@
       <c r="G263" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="H263" s="10"/>
-      <c r="I263" s="10"/>
-      <c r="J263" s="10"/>
-      <c r="K263" s="10"/>
+      <c r="H263" s="9"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
     </row>
     <row r="264" ht="15" customHeight="1">
-      <c r="A264" s="10"/>
+      <c r="A264" s="9"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9457,25 +9466,28 @@
       <c r="G264" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="H264" s="10"/>
-      <c r="I264" s="10"/>
-      <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
+      <c r="H264" s="9"/>
+      <c r="I264" s="9"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="9"/>
     </row>
     <row r="265" ht="15" customHeight="1">
-      <c r="A265" s="10"/>
+      <c r="A265" s="9"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
-      <c r="J265" s="10"/>
-      <c r="K265" s="10"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="9"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="9"/>
+      <c r="K265" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1" location="" tooltip="" display="http://purl.obolibrary.org/obo/PO_0007616"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/NMNH/type_specimen_resource/nmnh-mappings.xlsx
+++ b/NMNH/type_specimen_resource/nmnh-mappings.xlsx
@@ -1782,7 +1782,7 @@
     <t>CYSTICERCI</t>
   </si>
   <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/UBERON_0014856 </t>
+    <t>http://purl.obolibrary.org/obo/UBERON_0014856</t>
   </si>
   <si>
     <t>K</t>
